--- a/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
+++ b/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="Check QLKT-CN screen" sheetId="7" r:id="rId5"/>
     <sheet name="Check QLKT-TM screen" sheetId="6" r:id="rId6"/>
     <sheet name="Test Report" sheetId="5" r:id="rId7"/>
+    <sheet name="Check QLTL-DS screen" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Check Login Screen'!$A$8:$H$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Check QLKT-DS screen'!$A$8:$H$21</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -210,8 +212,36 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -979,6 +1009,45 @@
   <si>
     <t>Check Quản lý kỳ thi - 
 Thêm mới Screen</t>
+  </si>
+  <si>
+    <t>Check Quản lý tài liệu - Danh sách  Screen</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_DS-1</t>
+  </si>
+  <si>
+    <t>[Tên tài liệu] Column</t>
+  </si>
+  <si>
+    <t>[Tác giả] Column</t>
+  </si>
+  <si>
+    <t>[Năm xuất bản] Column</t>
+  </si>
+  <si>
+    <t>[Ngày cập nhật] Column</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Tên tài liệu trong bảng Tài liệu</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Tên tác giả trong bảng Tài liệu</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Năm xuất bản trong bản Tài liệu</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu số thí sinh tham gia trong bản Tài liệu</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_DS-2</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_DS-3</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_DS-4</t>
   </si>
 </sst>
 </file>
@@ -2289,6 +2358,27 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2339,27 +2429,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2749,13 +2818,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2766,11 +2835,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2780,36 +2849,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="179" t="str">
+      <c r="C6" s="186" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="178"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2965,39 +3034,39 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183" t="str">
+      <c r="C3" s="189"/>
+      <c r="D3" s="190" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183" t="str">
+      <c r="C4" s="189"/>
+      <c r="D4" s="190" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="181" t="s">
+      <c r="C5" s="187"/>
+      <c r="D5" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="44"/>
@@ -3115,7 +3184,7 @@
       <c r="C15" s="150" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="194" t="s">
+      <c r="D15" s="176" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="58"/>
@@ -3141,7 +3210,7 @@
       <c r="C17" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="194" t="s">
+      <c r="D17" s="176" t="s">
         <v>224</v>
       </c>
       <c r="E17" s="58"/>
@@ -3210,7 +3279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3243,13 +3312,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3261,13 +3330,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3279,11 +3348,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3302,10 +3371,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="187"/>
+      <c r="F5" s="194"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3330,11 +3399,11 @@
         <f>COUNTIF(F$10:F$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="184">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1002)</f>
         <v>11</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3668,9 +3737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3703,13 +3772,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3721,13 +3790,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3739,11 +3808,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3762,10 +3831,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="187"/>
+      <c r="F5" s="194"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3790,11 +3859,11 @@
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="184">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1004)</f>
         <v>6</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3870,10 +3939,10 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="195" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="159"/>
@@ -3889,8 +3958,8 @@
       <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="189"/>
-      <c r="B12" s="189"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="159" t="s">
         <v>106</v>
       </c>
@@ -3904,8 +3973,8 @@
       <c r="I12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="189"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="159" t="s">
         <v>107</v>
       </c>
@@ -3919,8 +3988,8 @@
       <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="189"/>
-      <c r="B14" s="189"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="160" t="s">
         <v>108</v>
       </c>
@@ -3934,8 +4003,8 @@
       <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="189"/>
-      <c r="B15" s="189"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="160" t="s">
         <v>109</v>
       </c>
@@ -3949,8 +4018,8 @@
       <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="190"/>
-      <c r="B16" s="190"/>
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="160" t="s">
         <v>110</v>
       </c>
@@ -4131,13 +4200,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="192" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -4149,13 +4218,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -4167,11 +4236,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -4190,10 +4259,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="187"/>
+      <c r="F5" s="194"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -4218,11 +4287,11 @@
         <f>COUNTIF(F$10:F$1008,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="184">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1009)</f>
         <v>14</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -4665,13 +4734,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -4683,13 +4752,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -4701,11 +4770,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -4724,10 +4793,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="187"/>
+      <c r="F5" s="194"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -4752,11 +4821,11 @@
         <f>COUNTIF(F$10:F$1011,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="184">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1012)</f>
         <v>17</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -5218,7 +5287,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5232,15 +5301,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="105"/>
@@ -5256,14 +5325,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="183"/>
-      <c r="E3" s="191" t="s">
+      <c r="D3" s="190"/>
+      <c r="E3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="191"/>
+      <c r="F3" s="198"/>
       <c r="G3" s="108"/>
       <c r="H3" s="109"/>
     </row>
@@ -5271,14 +5340,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="191" t="s">
+      <c r="D4" s="190"/>
+      <c r="E4" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="191"/>
+      <c r="F4" s="198"/>
       <c r="G4" s="108"/>
       <c r="H4" s="109"/>
     </row>
@@ -5286,15 +5355,15 @@
       <c r="B5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="183" t="str">
+      <c r="C5" s="190" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="191" t="s">
+      <c r="D5" s="190"/>
+      <c r="E5" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="191"/>
+      <c r="F5" s="198"/>
       <c r="G5" s="108"/>
       <c r="H5" s="111" t="s">
         <v>44</v>
@@ -5305,14 +5374,14 @@
       <c r="B6" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="105"/>
@@ -5432,7 +5501,7 @@
       <c r="B13" s="122">
         <v>3</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="177" t="s">
         <v>229</v>
       </c>
       <c r="D13" s="124">
@@ -5447,19 +5516,19 @@
     </row>
     <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="121"/>
-      <c r="B14" s="196">
+      <c r="B14" s="178">
         <v>4</v>
       </c>
-      <c r="C14" s="197" t="s">
+      <c r="C14" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="180">
         <v>14</v>
       </c>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="200">
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="182">
         <v>14</v>
       </c>
     </row>
@@ -5556,4 +5625,436 @@
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="63"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="194"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="101">
+        <v>2</v>
+      </c>
+      <c r="B6" s="81">
+        <f>COUNTIF(F10:F1004,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="81">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="82">
+        <f>COUNTIF(F$10:F$1004,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <v>2</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="79"/>
+    </row>
+    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="86"/>
+    </row>
+    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="153"/>
+      <c r="D10" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="154"/>
+      <c r="F10" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
+      <c r="A11" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="159"/>
+      <c r="D11" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="148"/>
+      <c r="F11" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="147" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="148"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="95"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="159" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="147" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="148"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="160" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="158"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="160" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="158"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="95"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5">
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="160" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="158"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="164"/>
+      <c r="D17" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="95"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5">
+      <c r="A18" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="142"/>
+      <c r="D18" s="147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="148"/>
+      <c r="F18" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="142"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="95"/>
+    </row>
+    <row r="19" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="146"/>
+      <c r="B19" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:11" ht="178.5">
+      <c r="A20" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="95"/>
+    </row>
+    <row r="21" spans="1:11" ht="153">
+      <c r="A21" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="F22" s="103"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="F23" s="104"/>
+      <c r="I23" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F150">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
+++ b/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="247">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1035,12 +1035,6 @@
     <t>Lấy dữ liệu từ cột Tên tác giả trong bảng Tài liệu</t>
   </si>
   <si>
-    <t>Lấy dữ liệu từ cột Năm xuất bản trong bản Tài liệu</t>
-  </si>
-  <si>
-    <t>Lấy dữ liệu số thí sinh tham gia trong bản Tài liệu</t>
-  </si>
-  <si>
     <t>Gui-QLTL_DS-2</t>
   </si>
   <si>
@@ -1048,6 +1042,26 @@
   </si>
   <si>
     <t>Gui-QLTL_DS-4</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Năm xuất bản trong bảng Tài liệu</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu số thí sinh tham gia trong bảng Tài liệu</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - danh sách
+1. Click vào linkbutton xóa
+2. Click vào xác nhận xóa</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí tài liệu - Danh sách Screen</t>
+  </si>
+  <si>
+    <t>Check QLTL-DS screen</t>
+  </si>
+  <si>
+    <t>Check Function xoá</t>
   </si>
 </sst>
 </file>
@@ -3006,16 +3020,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="37" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.125" style="38" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="38" customWidth="1"/>
     <col min="7" max="16384" width="9" style="8"/>
@@ -3216,17 +3230,29 @@
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="58"/>
+    <row r="18" spans="2:6" ht="13.5">
+      <c r="B18" s="54">
+        <v>10</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="175" t="s">
+        <v>245</v>
+      </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="58"/>
+    <row r="19" spans="2:6" ht="13.5">
+      <c r="B19" s="54">
+        <v>11</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="175" t="s">
+        <v>245</v>
+      </c>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
     </row>
@@ -3264,6 +3290,8 @@
     <hyperlink ref="D15" location="'Check QLKT-TM screen'!A1" display="Check QLKT-TM screen"/>
     <hyperlink ref="D16" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D17" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
+    <hyperlink ref="D18" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
+    <hyperlink ref="D19" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5631,9 +5659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -5737,7 +5763,7 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="81">
         <f>COUNTIF(F10:F1004,"Fail")</f>
@@ -5752,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="191">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="191"/>
       <c r="G6" s="78"/>
@@ -5831,7 +5857,7 @@
     </row>
     <row r="11" spans="1:10" ht="25.5">
       <c r="A11" s="195" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="195" t="s">
         <v>104</v>
@@ -5885,7 +5911,7 @@
         <v>234</v>
       </c>
       <c r="D14" s="155" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E14" s="158"/>
       <c r="F14" s="152"/>
@@ -5900,7 +5926,7 @@
         <v>235</v>
       </c>
       <c r="D15" s="155" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E15" s="158"/>
       <c r="F15" s="152"/>
@@ -5908,7 +5934,7 @@
       <c r="H15" s="102"/>
       <c r="I15" s="95"/>
     </row>
-    <row r="16" spans="1:10" ht="25.5">
+    <row r="16" spans="1:10">
       <c r="A16" s="197"/>
       <c r="B16" s="197"/>
       <c r="C16" s="160" t="s">
@@ -5925,7 +5951,7 @@
     </row>
     <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="162" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="163" t="s">
         <v>117</v>
@@ -5944,7 +5970,7 @@
     </row>
     <row r="18" spans="1:11" ht="25.5">
       <c r="A18" s="142" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B18" s="142" t="s">
         <v>119</v>
@@ -5974,7 +6000,7 @@
       <c r="H19" s="168"/>
       <c r="I19" s="90"/>
     </row>
-    <row r="20" spans="1:11" ht="178.5">
+    <row r="20" spans="1:11" ht="51">
       <c r="A20" s="91" t="s">
         <v>122</v>
       </c>
@@ -5982,7 +6008,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="149" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="D20" s="149" t="s">
         <v>124</v>
@@ -5995,7 +6021,7 @@
       <c r="H20" s="102"/>
       <c r="I20" s="95"/>
     </row>
-    <row r="21" spans="1:11" ht="153">
+    <row r="21" spans="1:11" ht="51">
       <c r="A21" s="91" t="s">
         <v>125</v>
       </c>
@@ -6003,7 +6029,7 @@
         <v>126</v>
       </c>
       <c r="C21" s="149" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="D21" s="149" t="s">
         <v>128</v>
@@ -6028,13 +6054,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F150">

--- a/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
+++ b/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1035,6 +1035,12 @@
     <t>Lấy dữ liệu từ cột Tên tác giả trong bảng Tài liệu</t>
   </si>
   <si>
+    <t>Lấy dữ liệu từ cột Năm xuất bản trong bản Tài liệu</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu số thí sinh tham gia trong bản Tài liệu</t>
+  </si>
+  <si>
     <t>Gui-QLTL_DS-2</t>
   </si>
   <si>
@@ -1042,26 +1048,6 @@
   </si>
   <si>
     <t>Gui-QLTL_DS-4</t>
-  </si>
-  <si>
-    <t>Lấy dữ liệu từ cột Năm xuất bản trong bảng Tài liệu</t>
-  </si>
-  <si>
-    <t>Lấy dữ liệu số thí sinh tham gia trong bảng Tài liệu</t>
-  </si>
-  <si>
-    <t>- Tại màn hình quản lý tài liệu - danh sách
-1. Click vào linkbutton xóa
-2. Click vào xác nhận xóa</t>
-  </si>
-  <si>
-    <t>Check GUI-Quản lí tài liệu - Danh sách Screen</t>
-  </si>
-  <si>
-    <t>Check QLTL-DS screen</t>
-  </si>
-  <si>
-    <t>Check Function xoá</t>
   </si>
 </sst>
 </file>
@@ -3020,16 +3006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="37" customWidth="1"/>
-    <col min="3" max="3" width="34.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="38" customWidth="1"/>
     <col min="5" max="5" width="28.125" style="38" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="38" customWidth="1"/>
     <col min="7" max="16384" width="9" style="8"/>
@@ -3230,29 +3216,17 @@
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="2:6" ht="13.5">
-      <c r="B18" s="54">
-        <v>10</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="175" t="s">
-        <v>245</v>
-      </c>
+    <row r="18" spans="2:6">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="2:6" ht="13.5">
-      <c r="B19" s="54">
-        <v>11</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="175" t="s">
-        <v>245</v>
-      </c>
+    <row r="19" spans="2:6">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
     </row>
@@ -3290,8 +3264,6 @@
     <hyperlink ref="D15" location="'Check QLKT-TM screen'!A1" display="Check QLKT-TM screen"/>
     <hyperlink ref="D16" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D17" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
-    <hyperlink ref="D18" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
-    <hyperlink ref="D19" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5659,7 +5631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -5763,7 +5737,7 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="81">
         <f>COUNTIF(F10:F1004,"Fail")</f>
@@ -5778,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="191">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="191"/>
       <c r="G6" s="78"/>
@@ -5857,7 +5831,7 @@
     </row>
     <row r="11" spans="1:10" ht="25.5">
       <c r="A11" s="195" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B11" s="195" t="s">
         <v>104</v>
@@ -5911,7 +5885,7 @@
         <v>234</v>
       </c>
       <c r="D14" s="155" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E14" s="158"/>
       <c r="F14" s="152"/>
@@ -5926,7 +5900,7 @@
         <v>235</v>
       </c>
       <c r="D15" s="155" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E15" s="158"/>
       <c r="F15" s="152"/>
@@ -5934,7 +5908,7 @@
       <c r="H15" s="102"/>
       <c r="I15" s="95"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" s="197"/>
       <c r="B16" s="197"/>
       <c r="C16" s="160" t="s">
@@ -5951,7 +5925,7 @@
     </row>
     <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="162" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B17" s="163" t="s">
         <v>117</v>
@@ -5970,7 +5944,7 @@
     </row>
     <row r="18" spans="1:11" ht="25.5">
       <c r="A18" s="142" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B18" s="142" t="s">
         <v>119</v>
@@ -6000,7 +5974,7 @@
       <c r="H19" s="168"/>
       <c r="I19" s="90"/>
     </row>
-    <row r="20" spans="1:11" ht="51">
+    <row r="20" spans="1:11" ht="178.5">
       <c r="A20" s="91" t="s">
         <v>122</v>
       </c>
@@ -6008,7 +5982,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="149" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="D20" s="149" t="s">
         <v>124</v>
@@ -6021,7 +5995,7 @@
       <c r="H20" s="102"/>
       <c r="I20" s="95"/>
     </row>
-    <row r="21" spans="1:11" ht="51">
+    <row r="21" spans="1:11" ht="153">
       <c r="A21" s="91" t="s">
         <v>125</v>
       </c>
@@ -6029,7 +6003,7 @@
         <v>126</v>
       </c>
       <c r="C21" s="149" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="D21" s="149" t="s">
         <v>128</v>
@@ -6054,13 +6028,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F150">

--- a/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
+++ b/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Check QLKT-TM screen" sheetId="6" r:id="rId6"/>
     <sheet name="Test Report" sheetId="5" r:id="rId7"/>
     <sheet name="Check QLTL-DS screen" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Check QLTL-CN screen" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Check Login Screen'!$A$8:$H$21</definedName>
@@ -240,8 +240,36 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="289">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1048,6 +1076,173 @@
   </si>
   <si>
     <t>Gui-QLTL_DS-4</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - danh sách
+1. Click vào linkbutton xóa
+2. Click vào xác nhận xóa</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí tài liệu - Danh sách</t>
+  </si>
+  <si>
+    <t>Check QLTL-DS screen'</t>
+  </si>
+  <si>
+    <t>Check Function xoá</t>
+  </si>
+  <si>
+    <t>Check Quản lí tài liệu - Danh sách Screen</t>
+  </si>
+  <si>
+    <t>Check Quản lý tài liệu - Sửa Screen</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_CN-1</t>
+  </si>
+  <si>
+    <t>[Tên tài liệu] Textbox</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_CN-2</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_CN-3</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_CN-4</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_CN-5</t>
+  </si>
+  <si>
+    <t>[Tên tác giả] Textbox</t>
+  </si>
+  <si>
+    <t>[Năm xuất bản] Textbox</t>
+  </si>
+  <si>
+    <t>Check Gui - Quản lý tài liệu_Danh sách Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tại màn hình quản lý tài liệu - danh sách
+1. Click linkbutton Cập nhật
+</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tài liệu mới được cập nhật vào DB
+- Đóng cửa sổ Cập nhật
+- Quay lại trang danh sách
+- Làm mới danh sách tài liệu</t>
+  </si>
+  <si>
+    <t>Cập nhật tài khi không nhập trường tên tài liệu hoặc tên tài liệu là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thong báo: "tên tài liệu là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi không nhập trường tên tác giả hoặc tên tác giả là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết trừ tên tài liệu
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật kỳ thi khi không nhập trường năm xuất bản hoặc năm xuất bản là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo: "tên tác giả là bắt buộc"</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "năm xuất bản là bắt buộc"</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào"$$$%" vào các textbox
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi nhập các trường với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi nhập trường tên tài liệu không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Tên tài liệu không được là số"</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu với các trường dữ liệu được nhập với độ dài lớn nhất</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết với độ dài lớn nhất
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tài liệu mới được thêm vào DB
+- Đóng cửa sổ Cập nhật
+- Quay lại trang danh sách
+- Làm mới danh sách tài liệu</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Click vào linkbutton [Thoát]</t>
+  </si>
+  <si>
+    <t>Quay lại màn hình Quản lý tài liệu - danh sách</t>
+  </si>
+  <si>
+    <t>Check Quản lí tài liệu - Sửa Screen</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào "123" vào trường tên tài liệu
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi nhập trường Tên tác giả không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào "123" vào trường tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Tên tác giả không được là số"</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi nhập trường Năm xuất bản không phải là ngày/tháng/năm</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - Cập nhật
+1. Nhập vào "123abc" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Năm xuất bản không đúng định dạng"</t>
+  </si>
+  <si>
+    <t>FUNC-CN-11</t>
+  </si>
+  <si>
+    <t>FUNC-CN-10</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +2077,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2378,6 +2573,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2818,13 +3016,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2835,11 +3033,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2849,36 +3047,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="186" t="str">
+      <c r="C6" s="187" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="185"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -3006,16 +3204,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="37" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.125" style="38" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="38" customWidth="1"/>
     <col min="7" max="16384" width="9" style="8"/>
@@ -3034,39 +3232,39 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190" t="str">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190" t="str">
+      <c r="C4" s="190"/>
+      <c r="D4" s="191" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="188" t="s">
+      <c r="C5" s="188"/>
+      <c r="D5" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="44"/>
@@ -3138,7 +3336,7 @@
       <c r="E11" s="56"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="2:6" ht="38.25">
+    <row r="12" spans="2:6" ht="25.5">
       <c r="B12" s="54">
         <v>4</v>
       </c>
@@ -3164,7 +3362,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="2:6" ht="38.25">
+    <row r="14" spans="2:6" ht="25.5">
       <c r="B14" s="54">
         <v>6</v>
       </c>
@@ -3216,17 +3414,25 @@
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" ht="13.5">
       <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="175" t="s">
+        <v>245</v>
+      </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" ht="13.5">
       <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="175" t="s">
+        <v>245</v>
+      </c>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
     </row>
@@ -3264,6 +3470,8 @@
     <hyperlink ref="D15" location="'Check QLKT-TM screen'!A1" display="Check QLKT-TM screen"/>
     <hyperlink ref="D16" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D17" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
+    <hyperlink ref="D18" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
+    <hyperlink ref="D19" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3312,13 +3520,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3330,13 +3538,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3348,11 +3556,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3371,10 +3579,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="194"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3399,11 +3607,11 @@
         <f>COUNTIF(F$10:F$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="191">
+      <c r="E6" s="192">
         <f>COUNTA(A10:A1002)</f>
         <v>11</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3772,13 +3980,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3790,13 +3998,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3808,11 +4016,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3831,10 +4039,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="194"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3859,11 +4067,11 @@
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="191">
+      <c r="E6" s="192">
         <f>COUNTA(A10:A1004)</f>
         <v>6</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3939,10 +4147,10 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="196" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="159"/>
@@ -3958,8 +4166,8 @@
       <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="196"/>
-      <c r="B12" s="196"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="159" t="s">
         <v>106</v>
       </c>
@@ -3973,8 +4181,8 @@
       <c r="I12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="196"/>
-      <c r="B13" s="196"/>
+      <c r="A13" s="197"/>
+      <c r="B13" s="197"/>
       <c r="C13" s="159" t="s">
         <v>107</v>
       </c>
@@ -3988,8 +4196,8 @@
       <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="196"/>
-      <c r="B14" s="196"/>
+      <c r="A14" s="197"/>
+      <c r="B14" s="197"/>
       <c r="C14" s="160" t="s">
         <v>108</v>
       </c>
@@ -4003,8 +4211,8 @@
       <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="196"/>
-      <c r="B15" s="196"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="160" t="s">
         <v>109</v>
       </c>
@@ -4018,8 +4226,8 @@
       <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="197"/>
-      <c r="B16" s="197"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="160" t="s">
         <v>110</v>
       </c>
@@ -4167,7 +4375,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="H5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4200,13 +4408,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="193" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -4218,13 +4426,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -4236,11 +4444,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -4259,10 +4467,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="194"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -4287,11 +4495,11 @@
         <f>COUNTIF(F$10:F$1008,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="191">
+      <c r="E6" s="192">
         <f>COUNTA(A10:A1009)</f>
         <v>14</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -4734,13 +4942,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -4752,13 +4960,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -4770,11 +4978,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -4793,10 +5001,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="194"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -4821,11 +5029,11 @@
         <f>COUNTIF(F$10:F$1011,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="191">
+      <c r="E6" s="192">
         <f>COUNTA(A10:A1012)</f>
         <v>17</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -5284,32 +5492,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="8"/>
     <col min="8" max="9" width="33.125" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="105"/>
@@ -5325,14 +5533,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="198" t="s">
+      <c r="D3" s="191"/>
+      <c r="E3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="198"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="108"/>
       <c r="H3" s="109"/>
     </row>
@@ -5340,14 +5548,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="198" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="198"/>
+      <c r="F4" s="199"/>
       <c r="G4" s="108"/>
       <c r="H4" s="109"/>
     </row>
@@ -5355,15 +5563,15 @@
       <c r="B5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="190" t="str">
+      <c r="C5" s="191" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="198" t="s">
+      <c r="D5" s="191"/>
+      <c r="E5" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="198"/>
+      <c r="F5" s="199"/>
       <c r="G5" s="108"/>
       <c r="H5" s="111" t="s">
         <v>44</v>
@@ -5374,14 +5582,14 @@
       <c r="B6" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="199" t="s">
+      <c r="C6" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="105"/>
@@ -5532,80 +5740,112 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="25.5">
       <c r="A15" s="121"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="178"/>
+      <c r="C15" s="179" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="180">
+        <v>6</v>
+      </c>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="121"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="179" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="180">
+        <v>16</v>
+      </c>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="121"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="129">
-        <f>SUM(D9:D14)</f>
-        <v>48</v>
-      </c>
-      <c r="E15" s="129">
+      <c r="D17" s="129">
+        <f>SUM(D9:D16)</f>
+        <v>70</v>
+      </c>
+      <c r="E17" s="129">
         <f>SUM(E9:E13)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="129">
+      <c r="F17" s="129">
         <f>SUM(F9:F13)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G17" s="129">
         <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="130">
-        <f>SUM(H9:H14)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="114"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="135">
-        <f>(D15+E15)*100/(H15-G15)</f>
-        <v>100</v>
-      </c>
-      <c r="F17" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="83"/>
+      <c r="H17" s="130">
+        <f>SUM(H9:H16)</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="114"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="134" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="135">
+        <f>(D17+E17)*100/(H17-G17)</f>
+        <v>100</v>
+      </c>
+      <c r="F19" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="114"/>
+      <c r="H19" s="83"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="135">
-        <f>D15*100/(H15-G15)</f>
+      <c r="D20" s="114"/>
+      <c r="E20" s="135">
+        <f>D17*100/(H17-G17)</f>
         <v>100</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F20" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="83"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="83"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5631,8 +5871,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="63"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="193" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="195"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="101">
+        <v>6</v>
+      </c>
+      <c r="B6" s="81">
+        <f>COUNTIF(F10:F1004,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="81">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="82">
+        <f>COUNTIF(F$10:F$1004,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="192">
+        <v>6</v>
+      </c>
+      <c r="F6" s="192"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="79"/>
+    </row>
+    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="86"/>
+    </row>
+    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="153"/>
+      <c r="D10" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="154"/>
+      <c r="F10" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
+      <c r="A11" s="196" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="159"/>
+      <c r="D11" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="148"/>
+      <c r="F11" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="147" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="148"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="95"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5">
+      <c r="A13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="159" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="147" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="148"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="197"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="160" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="158"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="197"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="160" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="158"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="95"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="198"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="160" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="158"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="164"/>
+      <c r="D17" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="95"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5">
+      <c r="A18" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="142"/>
+      <c r="D18" s="147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="148"/>
+      <c r="F18" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="142"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="95"/>
+    </row>
+    <row r="19" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="146"/>
+      <c r="B19" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:11" ht="51">
+      <c r="A20" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="95"/>
+    </row>
+    <row r="21" spans="1:11" ht="51">
+      <c r="A21" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="F22" s="103"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="F23" s="104"/>
+      <c r="I23" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F150">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5665,13 +6323,13 @@
       <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="192" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="193" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -5683,13 +6341,13 @@
       <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -5701,11 +6359,11 @@
       <c r="A4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -5724,10 +6382,10 @@
       <c r="D5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="194"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -5737,10 +6395,10 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="101">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F1004,"Fail")</f>
+        <f>COUNTIF(F10:F1010,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
@@ -5748,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$1004,"N/A")</f>
+        <f>COUNTIF(F$10:F$1010,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="191">
-        <v>2</v>
-      </c>
-      <c r="F6" s="191"/>
+      <c r="E6" s="192">
+        <v>16</v>
+      </c>
+      <c r="F6" s="192"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -5800,7 +6458,7 @@
     <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="87" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -5811,34 +6469,34 @@
       <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="157" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="91" t="s">
+      <c r="A10" s="183" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="159"/>
+      <c r="D10" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="148"/>
+      <c r="F10" s="152" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="102"/>
       <c r="I10" s="95"/>
     </row>
-    <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="195" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="195" t="s">
-        <v>104</v>
+    <row r="11" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A11" s="170" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="172" t="s">
+        <v>255</v>
       </c>
       <c r="C11" s="159"/>
       <c r="D11" s="147" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="152" t="s">
@@ -5848,165 +6506,193 @@
       <c r="H11" s="102"/>
       <c r="I11" s="95"/>
     </row>
-    <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="196"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="159" t="s">
-        <v>232</v>
-      </c>
+    <row r="12" spans="1:10" ht="51" customHeight="1">
+      <c r="A12" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="172" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="159"/>
       <c r="D12" s="147" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="E12" s="148"/>
-      <c r="F12" s="152"/>
+      <c r="F12" s="152" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="91"/>
       <c r="H12" s="102"/>
       <c r="I12" s="95"/>
     </row>
-    <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="196"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="159" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="147" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="152"/>
+    <row r="13" spans="1:10" ht="51" customHeight="1">
+      <c r="A13" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="158"/>
+      <c r="F13" s="152" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="91"/>
       <c r="H13" s="102"/>
       <c r="I13" s="95"/>
     </row>
-    <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="196"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="160" t="s">
-        <v>234</v>
-      </c>
+    <row r="14" spans="1:10" ht="51" customHeight="1">
+      <c r="A14" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="172" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="160"/>
       <c r="D14" s="155" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="E14" s="158"/>
-      <c r="F14" s="152"/>
+      <c r="F14" s="152" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="91"/>
       <c r="H14" s="102"/>
       <c r="I14" s="95"/>
     </row>
-    <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="196"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="160" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="155" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="158"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="102"/>
+    <row r="15" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A15" s="146"/>
+      <c r="B15" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="168"/>
       <c r="I15" s="95"/>
     </row>
-    <row r="16" spans="1:10" ht="25.5">
-      <c r="A16" s="197"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="160" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="152"/>
+    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="149" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="91"/>
       <c r="H16" s="102"/>
-      <c r="I16" s="95"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="162" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="156" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="167"/>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:11" ht="63.75">
+      <c r="A17" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="149" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="95"/>
     </row>
-    <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="142" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" s="142" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="147" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="142"/>
-      <c r="H18" s="169"/>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="149" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="149" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="91"/>
+      <c r="F18" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="95"/>
     </row>
-    <row r="19" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:11" ht="178.5">
+    <row r="19" spans="1:11" ht="76.5">
+      <c r="A19" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="149" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="95"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
       <c r="A20" s="91" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="C20" s="149" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="D20" s="149" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="E20" s="91"/>
-      <c r="F20" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="102"/>
+      <c r="F20" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="95"/>
     </row>
-    <row r="21" spans="1:11" ht="153">
+    <row r="21" spans="1:11" ht="63.75">
       <c r="A21" s="91" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="C21" s="149" t="s">
-        <v>127</v>
+        <v>270</v>
       </c>
       <c r="D21" s="149" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="99" t="s">
@@ -6014,30 +6700,156 @@
       </c>
       <c r="G21" s="98"/>
       <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="F22" s="103"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="F23" s="104"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
+      <c r="A22" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="91"/>
+      <c r="F22" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="95"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75">
+      <c r="A23" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="149" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="95"/>
     </row>
+    <row r="24" spans="1:11" ht="63.75">
+      <c r="A24" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="149" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="149" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="91"/>
+      <c r="F24" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="95"/>
+    </row>
+    <row r="25" spans="1:11" ht="76.5">
+      <c r="A25" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="149" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="98"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="95"/>
+    </row>
+    <row r="26" spans="1:11" ht="38.25">
+      <c r="A26" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="91"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="95"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="G27" s="8"/>
+      <c r="I27" s="95"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="95"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="F29" s="104"/>
+      <c r="I29" s="95"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="I30" s="95"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="I31" s="95"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="I32" s="90"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="95"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F150">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F28:F156 F7:F26">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6045,16 +6857,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
+++ b/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Test Report" sheetId="5" r:id="rId7"/>
     <sheet name="Check QLTL-DS screen" sheetId="8" r:id="rId8"/>
     <sheet name="Check QLTL-CN screen" sheetId="9" r:id="rId9"/>
+    <sheet name="Check QLTL-TM screen" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Check Login Screen'!$A$8:$H$21</definedName>
@@ -268,8 +269,36 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="335">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1243,6 +1272,174 @@
   </si>
   <si>
     <t>FUNC-CN-10</t>
+  </si>
+  <si>
+    <t>Check Quản lý tài liệu - Thêm mới Screen</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_TM-1</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_TM-3</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_TM-4</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_TM-5</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_TM-6</t>
+  </si>
+  <si>
+    <t>[Mã tài liệu] Textbox</t>
+  </si>
+  <si>
+    <t>Check Gui - Quản lý tài liệu_Thêm mới Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tại màn hình quản lý tài liệu - danh sách
+1. Click linkbutton thêm mới
+</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tài liệu mới được thêm vào DB
+- Đóng cửa sổ thêm mới
+- Quay lại trang danh sách
+- Làm mới danh sách tài liệu</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi không nhập trường Tên tài liệu, hoặc tên tài liệu là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Tên tài liệu
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo:  "Tên tài liệu là bắt buộc "</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thong báo: "tên tác giả là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi không nhập trường Tên tác giả hoặc tên tác giả là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo: "năm xuất bản là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi không nhập trường năm xuất bản hoặc năm xuất bản là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi nhập các trường với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào"$$$%" vào các textbox
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Đầu vào không đúng"</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi nhập trường Tên tài liệu không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Tên tài liệu không được là số "</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi nhập vào tên tài liệu bị trùng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào Tên tài liệu đã có trong DB
+2. Nhập vào toàn bộ những thông tin cần thiết
+3. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Tên tài liệu đã có trong hệ thống "</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi nhập trường Têntác giả không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào "123" vào trường Tên tài liệu
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào "123" vào trường Tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Tên tác giả không được là số "</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu khi nhập trường Năm xuất bản không phải là ngày/tháng/năm</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào "123abc" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Năm xuất bản không đúng định dạng "</t>
+  </si>
+  <si>
+    <t>FUNC-TM10</t>
+  </si>
+  <si>
+    <t>FUNC-TM-11</t>
+  </si>
+  <si>
+    <t>Thêm mới tài liệu với các trường dữ liệu được nhập với độ dài lớn nhất</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết với độ dài lớn nhất
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tài liệumới được thêm vào DB
+- Đóng cửa sổ thêm mới
+- Quay lại trang danh sách
+- Làm mới danh sách tài liệu</t>
+  </si>
+  <si>
+    <t>FUNC-TM-12</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý tài liệu - thêm mới
+1. Click vào linkbutton [Thoát]</t>
+  </si>
+  <si>
+    <t>Check Quản lí tài liệu - Thêm mới Screen</t>
+  </si>
+  <si>
+    <t>Gui-QLTL_TM-2</t>
+  </si>
+  <si>
+    <t>Check QLTL-CN screen'</t>
+  </si>
+  <si>
+    <t>Check QLTL-TM screen'</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2274,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2238,9 +2435,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2577,6 +2771,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2629,6 +2826,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3200,12 +3401,617 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="62"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="193" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="195"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="100">
+        <v>0</v>
+      </c>
+      <c r="B6" s="80">
+        <f>COUNTIF(F10:F1012,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="80">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="81">
+        <f>COUNTIF(F$10:F$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="192">
+        <v>0</v>
+      </c>
+      <c r="F6" s="192"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="140" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="156" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="152"/>
+      <c r="D10" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="153"/>
+      <c r="F10" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="94"/>
+    </row>
+    <row r="11" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A11" s="183" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="158"/>
+      <c r="D11" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="147"/>
+      <c r="F11" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="94"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1">
+      <c r="A12" s="169" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="171" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="158"/>
+      <c r="D12" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="147"/>
+      <c r="F12" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="94"/>
+    </row>
+    <row r="13" spans="1:10" ht="51" customHeight="1">
+      <c r="A13" s="169" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="158"/>
+      <c r="D13" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="147"/>
+      <c r="F13" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="94"/>
+    </row>
+    <row r="14" spans="1:10" ht="51" customHeight="1">
+      <c r="A14" s="169" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="171" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="159"/>
+      <c r="D14" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="157"/>
+      <c r="F14" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="94"/>
+    </row>
+    <row r="15" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A15" s="169" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="159"/>
+      <c r="D15" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="157"/>
+      <c r="F15" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="145"/>
+      <c r="B16" s="145" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="89"/>
+    </row>
+    <row r="17" spans="1:11" ht="51">
+      <c r="A17" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="148" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="148" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="148" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="90"/>
+      <c r="F18" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:11" ht="76.5">
+      <c r="A19" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="148" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="90"/>
+      <c r="F19" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="94"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
+      <c r="A20" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="148" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="148" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="94"/>
+    </row>
+    <row r="21" spans="1:11" ht="76.5">
+      <c r="A21" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="90"/>
+      <c r="F21" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
+      <c r="A22" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="148" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75">
+      <c r="A23" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="F23" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="94"/>
+    </row>
+    <row r="24" spans="1:11" ht="63.75">
+      <c r="A24" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="148" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="F24" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="1:11" ht="63.75">
+      <c r="A25" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25" s="90"/>
+      <c r="F25" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="1:11" ht="89.25">
+      <c r="A26" s="90" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="90" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="90"/>
+      <c r="F26" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="94"/>
+    </row>
+    <row r="27" spans="1:11" ht="76.5">
+      <c r="A27" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="148" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="90"/>
+      <c r="F27" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="94"/>
+    </row>
+    <row r="28" spans="1:11" ht="38.25">
+      <c r="A28" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="148" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="148" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="90"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="94"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="8"/>
+      <c r="I29" s="94"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="94"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="F31" s="103"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="I32" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F30:F158 F7:F28">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3304,7 +4110,7 @@
       <c r="C9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="135" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="56"/>
@@ -3317,7 +4123,7 @@
       <c r="C10" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="136" t="s">
+      <c r="D10" s="135" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="56"/>
@@ -3330,7 +4136,7 @@
       <c r="C11" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="135" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="56"/>
@@ -3340,10 +4146,10 @@
       <c r="B12" s="54">
         <v>4</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="135" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="56"/>
@@ -3356,7 +4162,7 @@
       <c r="C13" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="135" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="56"/>
@@ -3366,10 +4172,10 @@
       <c r="B14" s="54">
         <v>6</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="175" t="s">
+      <c r="D14" s="174" t="s">
         <v>186</v>
       </c>
       <c r="E14" s="58"/>
@@ -3379,10 +4185,10 @@
       <c r="B15" s="54">
         <v>7</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="176" t="s">
+      <c r="D15" s="175" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="58"/>
@@ -3395,7 +4201,7 @@
       <c r="C16" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="175" t="s">
+      <c r="D16" s="174" t="s">
         <v>224</v>
       </c>
       <c r="E16" s="58"/>
@@ -3408,7 +4214,7 @@
       <c r="C17" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="175" t="s">
         <v>224</v>
       </c>
       <c r="E17" s="58"/>
@@ -3419,36 +4225,44 @@
       <c r="C18" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="175" t="s">
+      <c r="D18" s="174" t="s">
         <v>245</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="2:6" ht="13.5">
+    <row r="19" spans="2:6" ht="14.25">
       <c r="B19" s="54"/>
       <c r="C19" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="175" t="s">
+      <c r="D19" s="203" t="s">
         <v>245</v>
       </c>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" ht="13.5">
       <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="174" t="s">
+        <v>333</v>
+      </c>
       <c r="E20" s="58"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" ht="13.5">
       <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
+      <c r="C21" s="149" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="202" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3471,7 +4285,9 @@
     <hyperlink ref="D16" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D17" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D18" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
-    <hyperlink ref="D19" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
+    <hyperlink ref="D20" location="'Check QLTL-CN screen'!A1" display="'Check QLTL-CN screen'!A1"/>
+    <hyperlink ref="D21" location="'Check QLTL-TM screen'!A1" display="'Check QLTL-TM screen'!A1"/>
+    <hyperlink ref="D19" location="'Check QLTL-DS screen'!A1" display="Check QLTL-DS screen'"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3498,26 +4314,26 @@
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
+    <col min="7" max="7" width="9" style="62"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+    <row r="1" spans="1:10" s="69" customFormat="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="193" t="s">
@@ -3527,15 +4343,15 @@
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
       <c r="F2" s="193"/>
-      <c r="G2" s="72"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="193" t="s">
@@ -3545,15 +4361,15 @@
       <c r="D3" s="193"/>
       <c r="E3" s="193"/>
       <c r="F3" s="193"/>
-      <c r="G3" s="72"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="194"/>
@@ -3561,49 +4377,49 @@
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
       <c r="F4" s="194"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="195"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="80">
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="79">
         <f>COUNTIF(F10:F1002,"Pass")</f>
         <v>11</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <f>COUNTIF(F10:F1002,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <f>COUNTIF(F$10:F$1002,"N/A")</f>
         <v>0</v>
       </c>
@@ -3612,309 +4428,309 @@
         <v>11</v>
       </c>
       <c r="F6" s="192"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="137" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="38.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="138" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="144" t="s">
+      <c r="C12" s="140"/>
+      <c r="D12" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="145"/>
-      <c r="F12" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="141"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="140"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="147" t="s">
+      <c r="C13" s="141"/>
+      <c r="D13" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="95"/>
-    </row>
-    <row r="14" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="146" t="s">
+      <c r="E13" s="147"/>
+      <c r="F13" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="94"/>
+    </row>
+    <row r="14" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="87"/>
+      <c r="B14" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="90"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="95"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:10" ht="51">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="95"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="95"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:9" ht="51">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="95"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="95"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="95"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
-    </row>
-    <row r="22" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="91" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="90"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3958,26 +4774,26 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
+    <col min="7" max="7" width="9" style="62"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+    <row r="1" spans="1:10" s="69" customFormat="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="193" t="s">
@@ -3987,15 +4803,15 @@
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
       <c r="F2" s="193"/>
-      <c r="G2" s="72"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="193" t="s">
@@ -4005,15 +4821,15 @@
       <c r="D3" s="193"/>
       <c r="E3" s="193"/>
       <c r="F3" s="193"/>
-      <c r="G3" s="72"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="194"/>
@@ -4021,49 +4837,49 @@
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
       <c r="F4" s="194"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="195"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="101">
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="100">
         <f>COUNTIF(F10:F1004,"Pass")</f>
         <v>6</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <f>COUNTIF(F10:F1004,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
@@ -4072,79 +4888,79 @@
         <v>6</v>
       </c>
       <c r="F6" s="192"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="141" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="151" t="s">
+      <c r="C10" s="152"/>
+      <c r="D10" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="25.5">
       <c r="A11" s="196" t="s">
@@ -4153,195 +4969,195 @@
       <c r="B11" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="147" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="95"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="25.5">
       <c r="A12" s="197"/>
       <c r="B12" s="197"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="95"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="197"/>
       <c r="B13" s="197"/>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="25.5">
       <c r="A14" s="197"/>
       <c r="B14" s="197"/>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="95"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
       <c r="A15" s="197"/>
       <c r="B15" s="197"/>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="158"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="95"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="198"/>
       <c r="B16" s="198"/>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="95"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="156" t="s">
+      <c r="C17" s="163"/>
+      <c r="D17" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="95"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="140"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="147" t="s">
+      <c r="C18" s="141"/>
+      <c r="D18" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="142"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="95"/>
-    </row>
-    <row r="19" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146" t="s">
+      <c r="E18" s="147"/>
+      <c r="F18" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="141"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="145"/>
+      <c r="B19" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="90"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:11" ht="51">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="95"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="103"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="F22" s="102"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="104"/>
-      <c r="I23" s="95"/>
+      <c r="F23" s="103"/>
+      <c r="I23" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4386,26 +5202,26 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
+    <col min="7" max="7" width="9" style="62"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="193" t="s">
@@ -4415,15 +5231,15 @@
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
       <c r="F2" s="193"/>
-      <c r="G2" s="72"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="193" t="s">
@@ -4433,15 +5249,15 @@
       <c r="D3" s="193"/>
       <c r="E3" s="193"/>
       <c r="F3" s="193"/>
-      <c r="G3" s="72"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="194"/>
@@ -4449,49 +5265,49 @@
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
       <c r="F4" s="194"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="195"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="101">
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="100">
         <f>COUNTIF(F10:F1008,"Pass")</f>
         <v>14</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <f>COUNTIF(F10:F1008,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <f>COUNTIF(F$10:F$1008,"N/A")</f>
         <v>0</v>
       </c>
@@ -4500,390 +5316,390 @@
         <v>14</v>
       </c>
       <c r="F6" s="192"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="161" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="147" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="169" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="147" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="95"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="147" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="95"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="169" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="155" t="s">
+      <c r="C13" s="159"/>
+      <c r="D13" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="155" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="95"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146" t="s">
+      <c r="A15" s="145"/>
+      <c r="B15" s="145" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="95"/>
-    </row>
-    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="91" t="s">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="148" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="95"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="148" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="95"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:11" ht="63.75">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="148" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="D19" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="95"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="148" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="95"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="148" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="95"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="95"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="94"/>
     </row>
     <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="149" t="s">
+      <c r="C23" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="95"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="94"/>
     </row>
     <row r="24" spans="1:11" ht="38.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="148" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="149" t="s">
+      <c r="D24" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="95"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:11">
       <c r="G25" s="8"/>
-      <c r="I25" s="95"/>
+      <c r="I25" s="94"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="174"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="173"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="95"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="94"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="F27" s="104"/>
-      <c r="I27" s="95"/>
+      <c r="F27" s="103"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="I28" s="95"/>
+      <c r="I28" s="94"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="I29" s="95"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="I30" s="90"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="95"/>
+      <c r="I31" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4909,7 +5725,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="H2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4920,26 +5736,26 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
+    <col min="7" max="7" width="9" style="62"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="193" t="s">
@@ -4949,15 +5765,15 @@
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
       <c r="F2" s="193"/>
-      <c r="G2" s="72"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="193" t="s">
@@ -4967,15 +5783,15 @@
       <c r="D3" s="193"/>
       <c r="E3" s="193"/>
       <c r="F3" s="193"/>
-      <c r="G3" s="72"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="194"/>
@@ -4983,49 +5799,49 @@
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
       <c r="F4" s="194"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="195"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="101">
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="100">
         <f>COUNTIF(F10:F1011,"Pass")</f>
         <v>17</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <f>COUNTIF(F10:F1011,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <f>COUNTIF(F$10:F$1011,"N/A")</f>
         <v>0</v>
       </c>
@@ -5034,442 +5850,442 @@
         <v>17</v>
       </c>
       <c r="F6" s="192"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="141" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="151" t="s">
+      <c r="C10" s="152"/>
+      <c r="D10" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="147" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="95"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="147" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="95"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="147" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="155" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="95"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="155" t="s">
+      <c r="C15" s="159"/>
+      <c r="D15" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="158"/>
-      <c r="F15" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="95"/>
-    </row>
-    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146" t="s">
+      <c r="E15" s="157"/>
+      <c r="F15" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="145"/>
+      <c r="B16" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="90"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:11" ht="51">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="95"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="95"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:11" ht="63.75">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="D19" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="95"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" spans="1:11" ht="63.75">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="95"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="95"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:11" ht="76.5">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="95"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="94"/>
     </row>
     <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="149" t="s">
+      <c r="C23" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="95"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="94"/>
     </row>
     <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="149" t="s">
+      <c r="D24" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="95"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:11" ht="89.25">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="149" t="s">
+      <c r="D25" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="95"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="94"/>
     </row>
     <row r="26" spans="1:11" ht="63.75">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="148" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="149" t="s">
+      <c r="D26" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="95"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="94"/>
     </row>
     <row r="27" spans="1:11" ht="38.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="149" t="s">
+      <c r="D27" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="95"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="90"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="1:11">
       <c r="G28" s="8"/>
-      <c r="I28" s="95"/>
+      <c r="I28" s="94"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="174"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="173"/>
       <c r="G29" s="45"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="95"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="F30" s="104"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
+      <c r="F30" s="103"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="95"/>
+      <c r="I31" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5492,10 +6308,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5520,14 +6336,14 @@
       <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
       <c r="B3" s="11" t="s">
@@ -5541,8 +6357,8 @@
         <v>3</v>
       </c>
       <c r="F3" s="199"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
@@ -5556,11 +6372,11 @@
         <v>6</v>
       </c>
       <c r="F4" s="199"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="108"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="191" t="str">
@@ -5572,14 +6388,14 @@
         <v>8</v>
       </c>
       <c r="F5" s="199"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="111" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="110" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="109" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="200" t="s">
@@ -5592,260 +6408,276 @@
       <c r="H6" s="200"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="114"/>
+      <c r="B10" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="117" t="s">
+      <c r="D10" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="119" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="121"/>
-      <c r="B11" s="122">
+      <c r="A11" s="120"/>
+      <c r="B11" s="121">
         <v>1</v>
       </c>
-      <c r="C11" s="123" t="str">
+      <c r="C11" s="122" t="str">
         <f>'Check Login Screen'!B2</f>
         <v>Check Login Screen</v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="123">
         <f>'Check Login Screen'!A6</f>
         <v>11</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="123">
         <f>'Check Login Screen'!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F11" s="123">
         <f>'Check Login Screen'!C6</f>
         <v>0</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="124">
         <f>'Check Login Screen'!D6</f>
         <v>0</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="125">
         <f>'Check Login Screen'!E6</f>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="121"/>
-      <c r="B12" s="122">
+      <c r="A12" s="120"/>
+      <c r="B12" s="121">
         <v>2</v>
       </c>
-      <c r="C12" s="123" t="str">
+      <c r="C12" s="122" t="str">
         <f>'Check QLKT-DS screen'!B2</f>
         <v>Check Quản lý kỳ thi - Danh sách  Screen</v>
       </c>
-      <c r="D12" s="124">
+      <c r="D12" s="123">
         <f>'Check QLKT-DS screen'!A6</f>
         <v>6</v>
       </c>
-      <c r="E12" s="124">
+      <c r="E12" s="123">
         <f>'Check QLKT-DS screen'!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F12" s="123">
         <f>'Check QLKT-DS screen'!C6</f>
         <v>0</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="124">
         <f>'Check QLKT-DS screen'!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="126">
+      <c r="H12" s="125">
         <f>'Check QLKT-DS screen'!E6</f>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="121"/>
-      <c r="B13" s="122">
+      <c r="A13" s="120"/>
+      <c r="B13" s="121">
         <v>3</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="124">
+      <c r="D13" s="123">
         <v>17</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126">
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
-      <c r="A14" s="121"/>
-      <c r="B14" s="178">
+    <row r="14" spans="1:8">
+      <c r="A14" s="120"/>
+      <c r="B14" s="177">
         <v>4</v>
       </c>
-      <c r="C14" s="179" t="s">
+      <c r="C14" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="180">
+      <c r="D14" s="179">
         <v>14</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182">
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="181">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5">
-      <c r="A15" s="121"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="179" t="s">
+      <c r="A15" s="120"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="178" t="s">
         <v>247</v>
       </c>
-      <c r="D15" s="180">
+      <c r="D15" s="179">
         <v>6</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182">
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="181">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="121"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="179" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="180">
+      <c r="D16" s="179">
         <v>16</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182">
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="181">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="121"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128" t="s">
+      <c r="A17" s="120"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="179">
+        <v>18</v>
+      </c>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="120"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="129">
-        <f>SUM(D9:D16)</f>
-        <v>70</v>
-      </c>
-      <c r="E17" s="129">
+      <c r="D18" s="128">
+        <f>SUM(D9:D17)</f>
+        <v>88</v>
+      </c>
+      <c r="E18" s="128">
         <f>SUM(E9:E13)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="129">
+      <c r="F18" s="128">
         <f>SUM(F9:F13)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="129">
+      <c r="G18" s="128">
         <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="130">
-        <f>SUM(H9:H16)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="114"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
+      <c r="H18" s="129">
+        <f>SUM(H9:H17)</f>
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="134" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="135">
-        <f>(D17+E17)*100/(H17-G17)</f>
+      <c r="D20" s="113"/>
+      <c r="E20" s="134">
+        <f>(D18+E18)*100/(H18-G18)</f>
         <v>100</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F20" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="114"/>
-      <c r="H19" s="83"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="114"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="134" t="s">
+      <c r="G20" s="113"/>
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="135">
-        <f>D17*100/(H17-G17)</f>
+      <c r="D21" s="113"/>
+      <c r="E21" s="134">
+        <f>D18*100/(H18-G18)</f>
         <v>100</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F21" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="83"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="82"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5881,26 +6713,26 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
+    <col min="7" max="7" width="9" style="62"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="193" t="s">
@@ -5910,15 +6742,15 @@
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
       <c r="F2" s="193"/>
-      <c r="G2" s="72"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="193" t="s">
@@ -5928,15 +6760,15 @@
       <c r="D3" s="193"/>
       <c r="E3" s="193"/>
       <c r="F3" s="193"/>
-      <c r="G3" s="72"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="194"/>
@@ -5944,48 +6776,48 @@
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
       <c r="F4" s="194"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="195"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="101">
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="100">
         <v>6</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <f>COUNTIF(F10:F1004,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
@@ -5993,79 +6825,79 @@
         <v>6</v>
       </c>
       <c r="F6" s="192"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="141" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="140" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="151" t="s">
+      <c r="C10" s="152"/>
+      <c r="D10" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="25.5">
       <c r="A11" s="196" t="s">
@@ -6074,195 +6906,195 @@
       <c r="B11" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="147" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="95"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="25.5">
       <c r="A12" s="197"/>
       <c r="B12" s="197"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="95"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="197"/>
       <c r="B13" s="197"/>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="158" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="146" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="25.5">
       <c r="A14" s="197"/>
       <c r="B14" s="197"/>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="159" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="95"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
       <c r="A15" s="197"/>
       <c r="B15" s="197"/>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="159" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="154" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="158"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="95"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="198"/>
       <c r="B16" s="198"/>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="95"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="161" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="156" t="s">
+      <c r="C17" s="163"/>
+      <c r="D17" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="95"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="140"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="147" t="s">
+      <c r="C18" s="141"/>
+      <c r="D18" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="142"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="95"/>
-    </row>
-    <row r="19" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146" t="s">
+      <c r="E18" s="147"/>
+      <c r="F18" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="141"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="145"/>
+      <c r="B19" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="90"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:11" ht="51">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="95"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="100"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="103"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="F22" s="102"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="104"/>
-      <c r="I23" s="95"/>
+      <c r="F23" s="103"/>
+      <c r="I23" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6289,8 +7121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6301,26 +7133,26 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
+    <col min="7" max="7" width="9" style="62"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="193" t="s">
@@ -6330,15 +7162,15 @@
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
       <c r="F2" s="193"/>
-      <c r="G2" s="72"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="193" t="s">
@@ -6348,15 +7180,15 @@
       <c r="D3" s="193"/>
       <c r="E3" s="193"/>
       <c r="F3" s="193"/>
-      <c r="G3" s="72"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="194"/>
@@ -6364,48 +7196,48 @@
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
       <c r="F4" s="194"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="195" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="195"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="101">
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="100">
         <v>16</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <f>COUNTIF(F10:F1010,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="81">
         <f>COUNTIF(F$10:F$1010,"N/A")</f>
         <v>0</v>
       </c>
@@ -6413,432 +7245,432 @@
         <v>16</v>
       </c>
       <c r="F6" s="192"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="96" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="183" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="182" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="170" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="147" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="171" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="147" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="95"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="147" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="95"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="155" t="s">
+      <c r="C13" s="159"/>
+      <c r="D13" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="169" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="155" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="95"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146" t="s">
+      <c r="A15" s="145"/>
+      <c r="B15" s="145" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="95"/>
-    </row>
-    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="91" t="s">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="148" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="148" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="95"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="148" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="148" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="95"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:11" ht="76.5">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="148" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="D19" s="148" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="95"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="95"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="148" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="95"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="95"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="94"/>
     </row>
     <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="149" t="s">
+      <c r="C23" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="95"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="94"/>
     </row>
     <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="148" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="149" t="s">
+      <c r="D24" s="148" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="95"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:11" ht="76.5">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="149" t="s">
+      <c r="D25" s="148" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="95"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="94"/>
     </row>
     <row r="26" spans="1:11" ht="38.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="148" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="149" t="s">
+      <c r="D26" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="95"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="90"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="94"/>
     </row>
     <row r="27" spans="1:11">
       <c r="G27" s="8"/>
-      <c r="I27" s="95"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="174"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="45"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="95"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="94"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="F29" s="104"/>
-      <c r="I29" s="95"/>
+      <c r="F29" s="103"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="I30" s="95"/>
+      <c r="I30" s="94"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="95"/>
+      <c r="I31" s="94"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="I32" s="90"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="9:9">
-      <c r="I33" s="95"/>
+      <c r="I33" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
+++ b/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
-    <sheet name="Test case List" sheetId="2" r:id="rId2"/>
-    <sheet name="Check Login Screen" sheetId="3" r:id="rId3"/>
-    <sheet name="Check QLKT-DS screen" sheetId="4" r:id="rId4"/>
-    <sheet name="Check QLKT-CN screen" sheetId="7" r:id="rId5"/>
-    <sheet name="Check QLKT-TM screen" sheetId="6" r:id="rId6"/>
-    <sheet name="Test Report" sheetId="5" r:id="rId7"/>
-    <sheet name="Check QLTL-DS screen" sheetId="8" r:id="rId8"/>
-    <sheet name="Check QLTL-CN screen" sheetId="9" r:id="rId9"/>
-    <sheet name="Check QLTL-TM screen" sheetId="10" r:id="rId10"/>
+    <sheet name="Check Login Screen" sheetId="3" r:id="rId2"/>
+    <sheet name="Check QLKT-DS screen" sheetId="4" r:id="rId3"/>
+    <sheet name="Check QLKT-CN screen" sheetId="7" r:id="rId4"/>
+    <sheet name="Check QLKT-TM screen" sheetId="6" r:id="rId5"/>
+    <sheet name="Check QLTL-DS screen" sheetId="8" r:id="rId6"/>
+    <sheet name="Check QLTL-CN screen" sheetId="9" r:id="rId7"/>
+    <sheet name="Check QLTL-TM screen" sheetId="10" r:id="rId8"/>
+    <sheet name="Check QLND-DS screen" sheetId="11" r:id="rId9"/>
+    <sheet name="Check QLND-CN screen" sheetId="12" r:id="rId10"/>
+    <sheet name="Check QLND-TM screen" sheetId="13" r:id="rId11"/>
+    <sheet name="Test Report" sheetId="5" r:id="rId12"/>
+    <sheet name="Test case List" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Check Login Screen'!$A$8:$H$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Check QLKT-DS screen'!$A$8:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Check Login Screen'!$A$8:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Check QLKT-DS screen'!$A$8:$H$21</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -93,6 +96,62 @@
             <family val="1"/>
           </rPr>
           <t xml:space="preserve">: Delete
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
 </t>
         </r>
       </text>
@@ -297,8 +356,36 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="472">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1058,9 +1145,6 @@
     <t>Check Function thêm mới</t>
   </si>
   <si>
-    <t>Check GUI-Quản lý kì thi - Sửa</t>
-  </si>
-  <si>
     <t>Check Function cập nhật</t>
   </si>
   <si>
@@ -1110,9 +1194,6 @@
     <t>- Tại màn hình quản lý tài liệu - danh sách
 1. Click vào linkbutton xóa
 2. Click vào xác nhận xóa</t>
-  </si>
-  <si>
-    <t>Check GUI-Quản lí tài liệu - Danh sách</t>
   </si>
   <si>
     <t>Check QLTL-DS screen'</t>
@@ -1170,9 +1251,6 @@
 - Làm mới danh sách tài liệu</t>
   </si>
   <si>
-    <t>Cập nhật tài khi không nhập trường tên tài liệu hoặc tên tài liệu là các khoảng trắng</t>
-  </si>
-  <si>
     <t>- Hiển thị thong báo: "tên tài liệu là bắt buộc"</t>
   </si>
   <si>
@@ -1187,9 +1265,6 @@
     <t>- Tại màn hình quản lý tài liệu - Cập nhật
 1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên tác giả
 2. Click button [Submit]</t>
-  </si>
-  <si>
-    <t>Cập nhật kỳ thi khi không nhập trường năm xuất bản hoặc năm xuất bản là những khoảng trắng</t>
   </si>
   <si>
     <t>- Tại màn hình quản lý tài liệu - Cập nhật
@@ -1440,6 +1515,494 @@
   </si>
   <si>
     <t>Check QLTL-TM screen'</t>
+  </si>
+  <si>
+    <t>Check Quản lý người dùng - Danh sách  Screen</t>
+  </si>
+  <si>
+    <t>[Tên người dùng] Column</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Tên người dùng trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - danh sách
+1. Click vào linkbutton xóa
+2. Click vào xác nhận xóa</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-1</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-2</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-3</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-4</t>
+  </si>
+  <si>
+    <t>[Tên tài khoản] Column</t>
+  </si>
+  <si>
+    <t>[Ngày sinh] Column</t>
+  </si>
+  <si>
+    <t>[Giới tính] Column</t>
+  </si>
+  <si>
+    <t>[Quê quán] Column</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Tên tài khoản trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Quê quán trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Giới tính trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Ngày sinh trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-1</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-2</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-3</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-4</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-5</t>
+  </si>
+  <si>
+    <t>Check Quản lý người dùng - Sửa Screen</t>
+  </si>
+  <si>
+    <t>Check Gui - Quản lý người dùng_Danh sách Screen</t>
+  </si>
+  <si>
+    <t>[Tên người dùng] Textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tại màn hình quản lý người dùng - danh sách
+1. Click linkbutton Cập nhật
+</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập các trường với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào"$$$%" vào các textbox
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường tên người dùng không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123" vào trường tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Tên người dùng không được là số"</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123abc" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng với các trường dữ liệu được nhập với độ dài lớn nhất</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết với độ dài lớn nhất
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Click vào linkbutton [Thoát]</t>
+  </si>
+  <si>
+    <t>Quay lại màn hình Quản lý người dùng - danh sách</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Check QLTL-TM screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lý kì thi - Sửa screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí tài liệu - Danh sách screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí tài liệu - Thêm mới screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí người dùng - Danh sách screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí người dùng - Thêm mới screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lý tài liệu - Sửa screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lý người dùng - Sửa screen</t>
+  </si>
+  <si>
+    <t>Check QLND-DS screen'</t>
+  </si>
+  <si>
+    <t>[Tên tài khoản] Textbox</t>
+  </si>
+  <si>
+    <t>[Ngày sinh] Textbox</t>
+  </si>
+  <si>
+    <t>[Giới tính] Textbox</t>
+  </si>
+  <si>
+    <t>[Quê quán] Textbox</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-6</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-7</t>
+  </si>
+  <si>
+    <t>- Người dùng mới được cập nhật vào DB
+- Đóng cửa sổ Cập nhật
+- Quay lại trang danh sách
+- Làm mới danh sách người dùng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo: "Tên người dùng là bắt buộc"</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết trừ Tên tài khoản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo: "Tên tài khoản là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Tên người dùng hoặc tên người dùng là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Ngày sinh
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Ngày sinh là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Tên tài khoản hoặc tên tài khoản là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Ngày sinh hoặc Ngày sinh là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi không nhập trường tên tài liệu hoặc tên tài liệu là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi không nhập trường năm xuất bản hoặc năm xuất bản là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Giới tính
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Giới tính là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Quê quán hoặc quê quán là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Giới tính hoặc giới tính là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Quê quán
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Quê quán là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường Ngày sinh không phải là định dạng ngày/tháng/năm</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123abc" vào trường tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Ngày sinh không đúng định dạng"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường Giới tính không phải là Nam hoặc Nữ</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Giới tính không hợp lệ"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường Quê quán không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Quê quán không được là số"</t>
+  </si>
+  <si>
+    <t>FUNC-CN-12</t>
+  </si>
+  <si>
+    <t>- Người dùng mới được thêm vào DB
+- Đóng cửa sổ Cập nhật
+- Quay lại trang danh sách
+- Làm mới danh sách người dùng</t>
+  </si>
+  <si>
+    <t>FUNC-CN-13</t>
+  </si>
+  <si>
+    <t>FUNC-CN-14</t>
+  </si>
+  <si>
+    <t>Check QLND-CN screen'</t>
+  </si>
+  <si>
+    <t>Check Quản lý người dùng - Thêm mới Screen</t>
+  </si>
+  <si>
+    <t>Check Gui - Quản lý người dùng_Thêm mới Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tại màn hình quản lý người dùng - danh sách
+1. Click linkbutton thêm mới
+</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-1</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-2</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-3</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-4</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-5</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-6</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-7</t>
+  </si>
+  <si>
+    <t>- Người dùng mới được thêm vào DB
+- Đóng cửa sổ thêm mới
+- Quay lại trang danh sách
+- Làm mới danh sách người dùng</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Tên tài khoản hoặc tên tài khoản là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết trừ Tên tài khoản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Tên người dùng hoặc tên người dùng là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Ngày sinh hoặc Ngày sinh là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Ngày sinh
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Giới tính hoặc giới tính là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Giới tính
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Quê quán hoặc quê quán là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Quê quán
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập các trường với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào"$$$%" vào các textbox
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường tên người dùng không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123" vào trường tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường Ngày sinh không phải là định dạng ngày/tháng/năm</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123abc" vào trường tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường Giới tính không phải là Nam hoặc Nữ</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123abc" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết với độ dài lớn nhất
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường Quê quán không phải là kí tự</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng với các trường dữ liệu được nhập với độ dài lớn nhất</t>
+  </si>
+  <si>
+    <t>Thoát màn hình Thêm mới</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Click vào linkbutton [Thoát]</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Check QLND-TM screen'</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2837,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2405,42 +2968,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2625,9 +3152,6 @@
     <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2666,9 +3190,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2744,12 +3265,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2774,6 +3289,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2785,6 +3349,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2796,27 +3381,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2826,10 +3390,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3217,13 +3777,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3234,11 +3794,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="185" t="s">
+      <c r="C4" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -3248,36 +3808,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="187" t="str">
+      <c r="C6" s="190" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -3403,589 +3963,660 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="192" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>21</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1015,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="80">
-        <f>COUNTIF(F10:F1012,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
-        <f>COUNTIF(F$10:F$1012,"N/A")</f>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1015,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
-        <v>0</v>
-      </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="E6" s="191">
+        <v>21</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
-        <v>290</v>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="38.25">
+      <c r="A10" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="183" t="s">
-        <v>332</v>
-      </c>
-      <c r="B11" s="170" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="E10" s="134"/>
+      <c r="F10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25">
+      <c r="A11" s="155" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="171" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="146" t="s">
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="155" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="145"/>
+      <c r="D13" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="171" t="s">
+      <c r="E13" s="143"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25">
+      <c r="A14" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="155" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="169" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="171" t="s">
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5">
+      <c r="A16" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="154" t="s">
+      <c r="C16" s="145"/>
+      <c r="D16" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:11" ht="51">
-      <c r="A17" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="148" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="148" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" ht="76.5">
-      <c r="A19" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="148" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="148" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-    </row>
-    <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="148" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
-    </row>
-    <row r="21" spans="1:11" ht="76.5">
-      <c r="A21" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
-    </row>
-    <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
-    </row>
-    <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="148" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>313</v>
-      </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="C24" s="148" t="s">
-        <v>319</v>
-      </c>
-      <c r="D24" s="148" t="s">
-        <v>320</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
-    </row>
-    <row r="25" spans="1:11" ht="63.75">
-      <c r="A25" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="148" t="s">
-        <v>322</v>
-      </c>
-      <c r="D25" s="148" t="s">
-        <v>323</v>
-      </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
-    </row>
-    <row r="26" spans="1:11" ht="89.25">
-      <c r="A26" s="90" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="148" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>316</v>
-      </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="94"/>
-    </row>
-    <row r="27" spans="1:11" ht="76.5">
-      <c r="A27" s="90" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="148" t="s">
-        <v>327</v>
-      </c>
-      <c r="D27" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="94"/>
-    </row>
-    <row r="28" spans="1:11" ht="38.25">
-      <c r="A28" s="90" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="148" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="90"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="94"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="G29" s="8"/>
-      <c r="I29" s="94"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="94"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="F31" s="103"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="I32" s="94"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:9" s="57" customFormat="1" ht="51">
+      <c r="A18" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" spans="1:9" ht="63.75">
+      <c r="A19" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:9" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:9" ht="76.5">
+      <c r="A21" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:9" ht="76.5">
+      <c r="A22" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:9" ht="76.5">
+      <c r="A23" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:9" ht="76.5">
+      <c r="A24" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:9" ht="63.75">
+      <c r="A25" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:9" ht="63.75">
+      <c r="A26" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:9" ht="63.75">
+      <c r="A27" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>412</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:9" ht="63.75">
+      <c r="A28" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:9" ht="63.75">
+      <c r="A29" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="78"/>
+      <c r="F29" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:9" ht="76.5">
+      <c r="A30" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="135" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="135" t="s">
+        <v>420</v>
+      </c>
+      <c r="E30" s="78"/>
+      <c r="F30" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:9" ht="38.25">
+      <c r="A31" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="135" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="135" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="82"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="G32" s="8"/>
+      <c r="I32" s="82"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="82"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="F34" s="91"/>
+      <c r="I34" s="82"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="I35" s="82"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="I36" s="82"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="I37" s="77"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="G38" s="8"/>
+      <c r="I38" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3996,7 +4627,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F30:F158 F7:F28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F33:F161 F7:F31">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4006,19 +4637,1171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="50"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>21</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1013,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="68">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1013,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <v>21</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="38.25">
+      <c r="A10" s="127" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25">
+      <c r="A11" s="169" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" s="155" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="155" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25">
+      <c r="A14" s="155" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="155" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="155" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="145"/>
+      <c r="D16" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="77"/>
+    </row>
+    <row r="18" spans="1:11" ht="51">
+      <c r="A18" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" ht="63.75">
+      <c r="A19" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:11" ht="76.5">
+      <c r="A21" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="76.5">
+      <c r="A22" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:11" ht="76.5">
+      <c r="A23" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:11" ht="76.5">
+      <c r="A24" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>445</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:11" ht="63.75">
+      <c r="A25" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="63.75">
+      <c r="A26" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>449</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:11" ht="63.75">
+      <c r="A27" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:11" ht="63.75">
+      <c r="A28" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:11" ht="63.75">
+      <c r="A29" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="127"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:11" ht="76.5">
+      <c r="A30" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="135" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" s="185" t="s">
+        <v>420</v>
+      </c>
+      <c r="E30" s="184"/>
+      <c r="F30" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:11" ht="38.25">
+      <c r="A31" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="135" t="s">
+        <v>459</v>
+      </c>
+      <c r="D31" s="185" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="186"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="82"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="F32" s="91"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F159">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="8"/>
+    <col min="8" max="9" width="33.125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+      <c r="B1" s="204" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+    </row>
+    <row r="3" spans="1:8" ht="12" customHeight="1">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="202"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+    </row>
+    <row r="4" spans="1:8" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="202"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" spans="1:8" ht="12" customHeight="1">
+      <c r="B5" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="201" t="str">
+        <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
+        <v>&lt;Project Code&gt;_Test Report_vx.x</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="202"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="203" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="108"/>
+      <c r="B11" s="109">
+        <v>1</v>
+      </c>
+      <c r="C11" s="110" t="str">
+        <f>'Check Login Screen'!B2</f>
+        <v>Check Login Screen</v>
+      </c>
+      <c r="D11" s="111">
+        <f>'Check Login Screen'!A6</f>
+        <v>11</v>
+      </c>
+      <c r="E11" s="111">
+        <f>'Check Login Screen'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="111">
+        <f>'Check Login Screen'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="112">
+        <f>'Check Login Screen'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="113">
+        <f>'Check Login Screen'!E6</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="108"/>
+      <c r="B12" s="109" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="110" t="str">
+        <f>'Check QLKT-DS screen'!B2</f>
+        <v>Check Quản lý kỳ thi - Danh sách  Screen</v>
+      </c>
+      <c r="D12" s="111">
+        <f>'Check QLKT-DS screen'!A6</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="111">
+        <f>'Check QLKT-DS screen'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="111">
+        <f>'Check QLKT-DS screen'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="112">
+        <f>'Check QLKT-DS screen'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="113">
+        <f>'Check QLKT-DS screen'!E6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5">
+      <c r="A13" s="108"/>
+      <c r="B13" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="160" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="111">
+        <v>17</v>
+      </c>
+      <c r="E13" s="111">
+        <v>0</v>
+      </c>
+      <c r="F13" s="111">
+        <v>0</v>
+      </c>
+      <c r="G13" s="112">
+        <v>0</v>
+      </c>
+      <c r="H13" s="113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="108"/>
+      <c r="B14" s="161" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="163">
+        <v>14</v>
+      </c>
+      <c r="E14" s="163">
+        <v>0</v>
+      </c>
+      <c r="F14" s="163">
+        <v>0</v>
+      </c>
+      <c r="G14" s="164">
+        <v>0</v>
+      </c>
+      <c r="H14" s="165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5">
+      <c r="A15" s="108"/>
+      <c r="B15" s="161" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="163">
+        <v>6</v>
+      </c>
+      <c r="E15" s="163">
+        <v>0</v>
+      </c>
+      <c r="F15" s="163">
+        <v>0</v>
+      </c>
+      <c r="G15" s="164">
+        <v>0</v>
+      </c>
+      <c r="H15" s="165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="108"/>
+      <c r="B16" s="161" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="163">
+        <v>18</v>
+      </c>
+      <c r="E16" s="163">
+        <v>0</v>
+      </c>
+      <c r="F16" s="163">
+        <v>0</v>
+      </c>
+      <c r="G16" s="164">
+        <v>0</v>
+      </c>
+      <c r="H16" s="165">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="108"/>
+      <c r="B17" s="161" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="163">
+        <v>16</v>
+      </c>
+      <c r="E17" s="163">
+        <v>0</v>
+      </c>
+      <c r="F17" s="163">
+        <v>0</v>
+      </c>
+      <c r="G17" s="164">
+        <v>0</v>
+      </c>
+      <c r="H17" s="165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5">
+      <c r="A18" s="108"/>
+      <c r="B18" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="163">
+        <v>6</v>
+      </c>
+      <c r="E18" s="163">
+        <v>0</v>
+      </c>
+      <c r="F18" s="163">
+        <v>0</v>
+      </c>
+      <c r="G18" s="164">
+        <v>0</v>
+      </c>
+      <c r="H18" s="165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="108"/>
+      <c r="B19" s="161" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="163">
+        <v>21</v>
+      </c>
+      <c r="E19" s="163">
+        <v>0</v>
+      </c>
+      <c r="F19" s="163">
+        <v>0</v>
+      </c>
+      <c r="G19" s="164">
+        <v>0</v>
+      </c>
+      <c r="H19" s="165">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="108"/>
+      <c r="B20" s="161" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="163">
+        <v>21</v>
+      </c>
+      <c r="E20" s="163">
+        <v>0</v>
+      </c>
+      <c r="F20" s="163">
+        <v>0</v>
+      </c>
+      <c r="G20" s="164">
+        <v>0</v>
+      </c>
+      <c r="H20" s="165">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="108"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="116">
+        <f>SUM(D9:D20)</f>
+        <v>136</v>
+      </c>
+      <c r="E21" s="116">
+        <f>SUM(E9:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="116">
+        <f>SUM(F9:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="116">
+        <f>SUM(G9:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="117">
+        <f>SUM(H9:H20)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="101"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="122">
+        <f>(D21+E21)*100/(H21-G21)</f>
+        <v>100</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="101"/>
+      <c r="H23" s="70"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="122">
+        <f>D21*100/(H21-G21)</f>
+        <v>100</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="101"/>
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="37" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.125" style="38" customWidth="1"/>
     <col min="4" max="4" width="29.125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.125" style="38" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="38" customWidth="1"/>
@@ -4038,39 +5821,39 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="str">
+      <c r="C3" s="200"/>
+      <c r="D3" s="201" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="str">
+      <c r="C4" s="200"/>
+      <c r="D4" s="201" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189" t="s">
+      <c r="C5" s="198"/>
+      <c r="D5" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="44"/>
@@ -4087,182 +5870,294 @@
       <c r="F7" s="48"/>
     </row>
     <row r="8" spans="2:6" s="49" customFormat="1" ht="21" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="171" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.5">
-      <c r="B9" s="54">
-        <v>1</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:6" ht="13.5">
-      <c r="B10" s="54">
-        <v>2</v>
-      </c>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="172" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
     </row>
     <row r="11" spans="2:6" ht="13.5">
-      <c r="B11" s="54">
-        <v>3</v>
-      </c>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="172" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
     </row>
     <row r="12" spans="2:6" ht="25.5">
-      <c r="B12" s="54">
-        <v>4</v>
-      </c>
-      <c r="C12" s="149" t="s">
+      <c r="B12" s="172" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
     </row>
     <row r="13" spans="2:6" ht="13.5">
-      <c r="B13" s="54">
-        <v>5</v>
-      </c>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="172" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="176"/>
     </row>
     <row r="14" spans="2:6" ht="25.5">
-      <c r="B14" s="54">
-        <v>6</v>
-      </c>
-      <c r="C14" s="149" t="s">
+      <c r="B14" s="172" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
     </row>
     <row r="15" spans="2:6" ht="13.5">
-      <c r="B15" s="54">
-        <v>7</v>
-      </c>
-      <c r="C15" s="149" t="s">
+      <c r="B15" s="172" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="177" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="175" t="s">
+      <c r="D15" s="179" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
     </row>
     <row r="16" spans="2:6" ht="13.5">
-      <c r="B16" s="54">
-        <v>8</v>
-      </c>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="173" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="178" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+    </row>
+    <row r="17" spans="2:6" ht="13.5">
+      <c r="B17" s="172" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="173" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D17" s="179" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="2:6" ht="13.5">
-      <c r="B17" s="54">
-        <v>9</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
     </row>
     <row r="18" spans="2:6" ht="13.5">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="172" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="173" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="178" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+    </row>
+    <row r="19" spans="2:6" ht="14.25">
+      <c r="B19" s="172" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="174" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="203" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
-    </row>
-    <row r="20" spans="2:6" ht="13.5">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="174" t="s">
-        <v>333</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="57"/>
+      <c r="D19" s="180" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+    </row>
+    <row r="20" spans="2:6" ht="14.25">
+      <c r="B20" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="173" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" s="180" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
     </row>
     <row r="21" spans="2:6" ht="13.5">
-      <c r="B21" s="59"/>
-      <c r="C21" s="149" t="s">
+      <c r="B21" s="172" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="177" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="202" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
+      <c r="D21" s="178" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.5">
+      <c r="B22" s="172" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="173" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="178" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.5">
+      <c r="B23" s="172" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="178" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.25">
+      <c r="B24" s="181" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="173" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="183" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+    </row>
+    <row r="25" spans="2:6" ht="14.25">
+      <c r="B25" s="181" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" s="173" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="183" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+    </row>
+    <row r="26" spans="2:6" ht="14.25">
+      <c r="B26" s="181" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" s="173" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+    </row>
+    <row r="27" spans="2:6" ht="14.25">
+      <c r="B27" s="181" t="s">
+        <v>466</v>
+      </c>
+      <c r="C27" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+    </row>
+    <row r="28" spans="2:6" ht="14.25">
+      <c r="B28" s="181" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="173" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="183" t="s">
+        <v>423</v>
+      </c>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+    </row>
+    <row r="29" spans="2:6" ht="14.25">
+      <c r="B29" s="181" t="s">
+        <v>470</v>
+      </c>
+      <c r="C29" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="183" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4285,9 +6180,17 @@
     <hyperlink ref="D16" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D17" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D18" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
-    <hyperlink ref="D20" location="'Check QLTL-CN screen'!A1" display="'Check QLTL-CN screen'!A1"/>
     <hyperlink ref="D21" location="'Check QLTL-TM screen'!A1" display="'Check QLTL-TM screen'!A1"/>
     <hyperlink ref="D19" location="'Check QLTL-DS screen'!A1" display="Check QLTL-DS screen'"/>
+    <hyperlink ref="D20" location="'Check QLTL-TM screen'!A1" display="'Check QLTL-TM screen'!A1"/>
+    <hyperlink ref="D22" location="'Check QLTL-CN screen'!A1" display="'Check QLTL-CN screen'!A1"/>
+    <hyperlink ref="D23" location="'Check QLTL-CN screen'!A1" display="'Check QLTL-CN screen'!A1"/>
+    <hyperlink ref="D24" location="'Check QLND-DS screen'!A1" display="'Check QLND-DS screen'!A1"/>
+    <hyperlink ref="D25" location="'Check QLND-DS screen'!A1" display="'Check QLND-DS screen'!A1"/>
+    <hyperlink ref="D28" location="'Check QLND-CN screen'!A1" display="'Check QLND-CN screen'!A1"/>
+    <hyperlink ref="D29" location="'Check QLND-CN screen'!A1" display="'Check QLND-CN screen'!A1"/>
+    <hyperlink ref="D26" location="'Check QLND-TM screen'!A1" display="'Check QLND-TM screen'!A1"/>
+    <hyperlink ref="D27" location="'Check QLND-TM screen'!A1" display="'Check QLND-TM screen'!A1"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4297,7 +6200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -4314,423 +6217,423 @@
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="79">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="67">
         <f>COUNTIF(F10:F1002,"Pass")</f>
         <v>11</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1002,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1002)</f>
         <v>11</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="136" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="38.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="137" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="143" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="144"/>
-      <c r="F12" s="140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="127"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="146" t="s">
+      <c r="C13" s="128"/>
+      <c r="D13" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="145" t="s">
+      <c r="E13" s="134"/>
+      <c r="F13" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="75"/>
+      <c r="B14" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="89"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="94"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:10" ht="51">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="94"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:9" ht="51">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="94"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="94"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
-    </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="90" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
+    </row>
+    <row r="22" spans="1:9" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4757,7 +6660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -4774,390 +6677,390 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="88">
         <f>COUNTIF(F10:F1004,"Pass")</f>
         <v>6</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1004,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1004)</f>
         <v>6</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="158" t="s">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="197"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="158" t="s">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="197"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="159" t="s">
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="197"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="159" t="s">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="154" t="s">
+      <c r="D15" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="159" t="s">
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="154" t="s">
+      <c r="D16" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="94"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="155" t="s">
+      <c r="C17" s="149"/>
+      <c r="D17" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="146" t="s">
+      <c r="C18" s="128"/>
+      <c r="D18" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="145" t="s">
+      <c r="E18" s="134"/>
+      <c r="F18" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="128"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="89"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:11" ht="51">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="102"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="F22" s="90"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="103"/>
-      <c r="I23" s="94"/>
+      <c r="F23" s="91"/>
+      <c r="I23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5186,7 +7089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -5202,504 +7105,504 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <f>COUNTIF(F10:F1008,"Pass")</f>
         <v>14</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1008,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1008,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1009)</f>
         <v>14</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="146" t="s">
+      <c r="C10" s="144"/>
+      <c r="D10" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="154" t="s">
+      <c r="C13" s="145"/>
+      <c r="D13" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="145"/>
-      <c r="B15" s="145" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="90" t="s">
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="89"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:11" ht="63.75">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="135" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="148" t="s">
+      <c r="D22" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:11" ht="38.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="94"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="78"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:11">
       <c r="G25" s="8"/>
-      <c r="I25" s="94"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="173"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="94"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="F27" s="103"/>
-      <c r="I27" s="94"/>
+      <c r="F27" s="91"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="I28" s="94"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="I29" s="94"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="I30" s="89"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="94"/>
+      <c r="I31" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5720,7 +7623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -5736,556 +7639,556 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <f>COUNTIF(F10:F1011,"Pass")</f>
         <v>17</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1011,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1011,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1012)</f>
         <v>17</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="155" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="146" t="s">
+      <c r="C13" s="144"/>
+      <c r="D13" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="154" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145" t="s">
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="132"/>
+      <c r="B16" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="89"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:11" ht="51">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:11" ht="63.75">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:11" ht="63.75">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:11" ht="76.5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="148" t="s">
+      <c r="D22" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:11" ht="89.25">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="148" t="s">
+      <c r="D25" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:11" ht="63.75">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="148" t="s">
+      <c r="D26" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="94"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:11" ht="38.25">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="90"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="94"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="78"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:11">
       <c r="G28" s="8"/>
-      <c r="I28" s="94"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="173"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="159"/>
       <c r="G29" s="45"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="94"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="F30" s="103"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="F30" s="91"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="94"/>
+      <c r="I31" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6306,404 +8209,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="8"/>
-    <col min="8" max="9" width="33.125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
-    </row>
-    <row r="3" spans="1:8" ht="12" customHeight="1">
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="191"/>
-      <c r="E3" s="199" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="199" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="199"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108"/>
-    </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="191" t="str">
-        <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
-        <v>&lt;Project Code&gt;_Test Report_vx.x</v>
-      </c>
-      <c r="D5" s="191"/>
-      <c r="E5" s="199" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="200" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="119" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121">
-        <v>1</v>
-      </c>
-      <c r="C11" s="122" t="str">
-        <f>'Check Login Screen'!B2</f>
-        <v>Check Login Screen</v>
-      </c>
-      <c r="D11" s="123">
-        <f>'Check Login Screen'!A6</f>
-        <v>11</v>
-      </c>
-      <c r="E11" s="123">
-        <f>'Check Login Screen'!B6</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="123">
-        <f>'Check Login Screen'!C6</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="124">
-        <f>'Check Login Screen'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="125">
-        <f>'Check Login Screen'!E6</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="120"/>
-      <c r="B12" s="121">
-        <v>2</v>
-      </c>
-      <c r="C12" s="122" t="str">
-        <f>'Check QLKT-DS screen'!B2</f>
-        <v>Check Quản lý kỳ thi - Danh sách  Screen</v>
-      </c>
-      <c r="D12" s="123">
-        <f>'Check QLKT-DS screen'!A6</f>
-        <v>6</v>
-      </c>
-      <c r="E12" s="123">
-        <f>'Check QLKT-DS screen'!B6</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="123">
-        <f>'Check QLKT-DS screen'!C6</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="124">
-        <f>'Check QLKT-DS screen'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="125">
-        <f>'Check QLKT-DS screen'!E6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="120"/>
-      <c r="B13" s="121">
-        <v>3</v>
-      </c>
-      <c r="C13" s="176" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="123">
-        <v>17</v>
-      </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="120"/>
-      <c r="B14" s="177">
-        <v>4</v>
-      </c>
-      <c r="C14" s="178" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="179">
-        <v>14</v>
-      </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="181">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5">
-      <c r="A15" s="120"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="179">
-        <v>6</v>
-      </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="181">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="120"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="179">
-        <v>16</v>
-      </c>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="181">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="120"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178" t="s">
-        <v>331</v>
-      </c>
-      <c r="D17" s="179">
-        <v>18</v>
-      </c>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="181">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="120"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="128">
-        <f>SUM(D9:D17)</f>
-        <v>88</v>
-      </c>
-      <c r="E18" s="128">
-        <f>SUM(E9:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="128">
-        <f>SUM(F9:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="128">
-        <f>SUM(G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="129">
-        <f>SUM(H9:H17)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="113"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="134">
-        <f>(D18+E18)*100/(H18-G18)</f>
-        <v>100</v>
-      </c>
-      <c r="F20" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="82"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="134">
-        <f>D18*100/(H18-G18)</f>
-        <v>100</v>
-      </c>
-      <c r="F21" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="82"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6713,388 +8225,388 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="192" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <v>6</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1004,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <v>6</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="127" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
+      <c r="A11" s="195" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="156" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+      <c r="D12" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="147" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="149"/>
+      <c r="D17" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="196" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="196" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="158" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="197"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="158" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="197"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="159" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="154" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="197"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="159" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="154" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="161" t="s">
+      <c r="E17" s="150"/>
+      <c r="F17" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5">
+      <c r="A18" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="162" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="155" t="s">
+      <c r="B18" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="141" t="s">
+      <c r="E18" s="134"/>
+      <c r="F18" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="128"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="77"/>
+    </row>
+    <row r="20" spans="1:11" ht="51">
+      <c r="A20" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:11" ht="51">
-      <c r="A20" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21" s="148" t="s">
+      <c r="C21" s="135" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="102"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="F22" s="90"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="103"/>
-      <c r="I23" s="94"/>
+      <c r="F23" s="91"/>
+      <c r="I23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7117,12 +8629,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7133,544 +8645,544 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="192" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <v>16</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1010,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1010,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <v>16</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="166" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="134"/>
+      <c r="F10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A11" s="155" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1">
+      <c r="A12" s="155" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="51" customHeight="1">
+      <c r="A13" s="155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="145"/>
+      <c r="D13" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="143"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="51" customHeight="1">
+      <c r="A14" s="155" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" ht="63.75">
+      <c r="A17" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="182" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="170" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="169" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="171" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="171" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="145"/>
-      <c r="B15" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="148" t="s">
+      <c r="D17" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="148" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="148" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" ht="76.5">
+      <c r="A19" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="148" t="s">
+      <c r="C19" s="135" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="135" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="148" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" ht="76.5">
-      <c r="A19" s="90" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="90" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="135" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:11" ht="63.75">
+      <c r="A21" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
+      <c r="A22" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-    </row>
-    <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" s="148" t="s">
+      <c r="C22" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
-    </row>
-    <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="90" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75">
+      <c r="A23" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:11" ht="63.75">
+      <c r="A24" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:11" ht="76.5">
+      <c r="A25" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="135" t="s">
         <v>271</v>
       </c>
-      <c r="C21" s="148" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
-    </row>
-    <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="90" t="s">
+      <c r="D25" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="148" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="148" t="s">
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="38.25">
+      <c r="A26" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="135" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
-    </row>
-    <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="148" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="148" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="148" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
-    </row>
-    <row r="25" spans="1:11" ht="76.5">
-      <c r="A25" s="90" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="90" t="s">
+      <c r="D26" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="148" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="148" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
-    </row>
-    <row r="26" spans="1:11" ht="38.25">
-      <c r="A26" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="148" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="94"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:11">
       <c r="G27" s="8"/>
-      <c r="I27" s="94"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="173"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="159"/>
       <c r="G28" s="45"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="94"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="F29" s="103"/>
-      <c r="I29" s="94"/>
+      <c r="F29" s="91"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="I30" s="94"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="94"/>
+      <c r="I31" s="82"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="I32" s="89"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="94"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="9:9" s="8" customFormat="1">
+      <c r="I33" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7689,4 +9201,1044 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="50"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>18</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1012,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="68">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <v>18</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="38.25">
+      <c r="A10" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25">
+      <c r="A11" s="167" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" s="155" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="155" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="155" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="155" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="132"/>
+      <c r="B16" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" ht="51">
+      <c r="A17" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="135" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" ht="76.5">
+      <c r="A19" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:11" ht="76.5">
+      <c r="A21" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
+      <c r="A22" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75">
+      <c r="A23" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:11" ht="63.75">
+      <c r="A24" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:11" ht="63.75">
+      <c r="A25" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="89.25">
+      <c r="A26" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:11" ht="76.5">
+      <c r="A27" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:11" ht="38.25">
+      <c r="A28" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="8"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="F31" s="91"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="I32" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F30:F158 F7:F28">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="50"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>6</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1005,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="68">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1005,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <v>6</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1">
+      <c r="A10" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
+      <c r="A11" s="195" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="144" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="144" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="145" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="145" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="140" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5">
+      <c r="A16" s="196"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="145" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="197"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="143"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="147" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="149"/>
+      <c r="D18" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="150"/>
+      <c r="F18" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="127"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="128"/>
+      <c r="D19" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="134"/>
+      <c r="F19" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="128"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="132"/>
+      <c r="B20" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" spans="1:11" ht="51">
+      <c r="A21" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="78"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="51">
+      <c r="A22" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="F23" s="90"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="F24" s="91"/>
+      <c r="I24" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F151">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
+++ b/Docs/SE07_BlackBoxTestCase_v1.0.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="840" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
-    <sheet name="Test case List" sheetId="2" r:id="rId2"/>
-    <sheet name="Check Login Screen" sheetId="3" r:id="rId3"/>
-    <sheet name="Check QLKT-DS screen" sheetId="4" r:id="rId4"/>
-    <sheet name="Check QLKT-CN screen" sheetId="7" r:id="rId5"/>
-    <sheet name="Check QLKT-TM screen" sheetId="6" r:id="rId6"/>
-    <sheet name="Test Report" sheetId="5" r:id="rId7"/>
-    <sheet name="Check QLTL-DS screen" sheetId="8" r:id="rId8"/>
-    <sheet name="Check QLTL-CN screen" sheetId="9" r:id="rId9"/>
-    <sheet name="Check QLTL-TM screen" sheetId="10" r:id="rId10"/>
+    <sheet name="Check Login Screen" sheetId="3" r:id="rId2"/>
+    <sheet name="Check QLKT-DS screen" sheetId="4" r:id="rId3"/>
+    <sheet name="Check QLKT-CN screen" sheetId="7" r:id="rId4"/>
+    <sheet name="Check QLKT-TM screen" sheetId="6" r:id="rId5"/>
+    <sheet name="Check QLTL-DS screen" sheetId="8" r:id="rId6"/>
+    <sheet name="Check QLTL-CN screen" sheetId="9" r:id="rId7"/>
+    <sheet name="Check QLTL-TM screen" sheetId="10" r:id="rId8"/>
+    <sheet name="Check QLND-DS screen" sheetId="11" r:id="rId9"/>
+    <sheet name="Check QLND-CN screen" sheetId="12" r:id="rId10"/>
+    <sheet name="Check QLND-TM screen" sheetId="13" r:id="rId11"/>
+    <sheet name="Test Report" sheetId="5" r:id="rId12"/>
+    <sheet name="Test case List" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Check Login Screen'!$A$8:$H$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Check QLKT-DS screen'!$A$8:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Check Login Screen'!$A$8:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Check QLKT-DS screen'!$A$8:$H$21</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -93,6 +96,62 @@
             <family val="1"/>
           </rPr>
           <t xml:space="preserve">: Delete
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
 </t>
         </r>
       </text>
@@ -297,8 +356,36 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="472">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1058,9 +1145,6 @@
     <t>Check Function thêm mới</t>
   </si>
   <si>
-    <t>Check GUI-Quản lý kì thi - Sửa</t>
-  </si>
-  <si>
     <t>Check Function cập nhật</t>
   </si>
   <si>
@@ -1110,9 +1194,6 @@
     <t>- Tại màn hình quản lý tài liệu - danh sách
 1. Click vào linkbutton xóa
 2. Click vào xác nhận xóa</t>
-  </si>
-  <si>
-    <t>Check GUI-Quản lí tài liệu - Danh sách</t>
   </si>
   <si>
     <t>Check QLTL-DS screen'</t>
@@ -1170,9 +1251,6 @@
 - Làm mới danh sách tài liệu</t>
   </si>
   <si>
-    <t>Cập nhật tài khi không nhập trường tên tài liệu hoặc tên tài liệu là các khoảng trắng</t>
-  </si>
-  <si>
     <t>- Hiển thị thong báo: "tên tài liệu là bắt buộc"</t>
   </si>
   <si>
@@ -1187,9 +1265,6 @@
     <t>- Tại màn hình quản lý tài liệu - Cập nhật
 1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên tác giả
 2. Click button [Submit]</t>
-  </si>
-  <si>
-    <t>Cập nhật kỳ thi khi không nhập trường năm xuất bản hoặc năm xuất bản là những khoảng trắng</t>
   </si>
   <si>
     <t>- Tại màn hình quản lý tài liệu - Cập nhật
@@ -1440,6 +1515,494 @@
   </si>
   <si>
     <t>Check QLTL-TM screen'</t>
+  </si>
+  <si>
+    <t>Check Quản lý người dùng - Danh sách  Screen</t>
+  </si>
+  <si>
+    <t>[Tên người dùng] Column</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Tên người dùng trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - danh sách
+1. Click vào linkbutton xóa
+2. Click vào xác nhận xóa</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-1</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-2</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-3</t>
+  </si>
+  <si>
+    <t>Gui-QLND_DS-4</t>
+  </si>
+  <si>
+    <t>[Tên tài khoản] Column</t>
+  </si>
+  <si>
+    <t>[Ngày sinh] Column</t>
+  </si>
+  <si>
+    <t>[Giới tính] Column</t>
+  </si>
+  <si>
+    <t>[Quê quán] Column</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Tên tài khoản trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Quê quán trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Giới tính trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ cột Ngày sinh trong bảng người dùng</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-1</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-2</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-3</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-4</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-5</t>
+  </si>
+  <si>
+    <t>Check Quản lý người dùng - Sửa Screen</t>
+  </si>
+  <si>
+    <t>Check Gui - Quản lý người dùng_Danh sách Screen</t>
+  </si>
+  <si>
+    <t>[Tên người dùng] Textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tại màn hình quản lý người dùng - danh sách
+1. Click linkbutton Cập nhật
+</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập các trường với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào"$$$%" vào các textbox
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường tên người dùng không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123" vào trường tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Tên người dùng không được là số"</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123abc" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng với các trường dữ liệu được nhập với độ dài lớn nhất</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết với độ dài lớn nhất
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Click vào linkbutton [Thoát]</t>
+  </si>
+  <si>
+    <t>Quay lại màn hình Quản lý người dùng - danh sách</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Check QLTL-TM screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lý kì thi - Sửa screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí tài liệu - Danh sách screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí tài liệu - Thêm mới screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí người dùng - Danh sách screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lí người dùng - Thêm mới screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lý tài liệu - Sửa screen</t>
+  </si>
+  <si>
+    <t>Check GUI-Quản lý người dùng - Sửa screen</t>
+  </si>
+  <si>
+    <t>Check QLND-DS screen'</t>
+  </si>
+  <si>
+    <t>[Tên tài khoản] Textbox</t>
+  </si>
+  <si>
+    <t>[Ngày sinh] Textbox</t>
+  </si>
+  <si>
+    <t>[Giới tính] Textbox</t>
+  </si>
+  <si>
+    <t>[Quê quán] Textbox</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-6</t>
+  </si>
+  <si>
+    <t>Gui-QLND_CN-7</t>
+  </si>
+  <si>
+    <t>- Người dùng mới được cập nhật vào DB
+- Đóng cửa sổ Cập nhật
+- Quay lại trang danh sách
+- Làm mới danh sách người dùng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo: "Tên người dùng là bắt buộc"</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết trừ Tên tài khoản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo: "Tên tài khoản là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Tên người dùng hoặc tên người dùng là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Ngày sinh
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Ngày sinh là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Tên tài khoản hoặc tên tài khoản là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Ngày sinh hoặc Ngày sinh là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi không nhập trường tên tài liệu hoặc tên tài liệu là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật tài liệu khi không nhập trường năm xuất bản hoặc năm xuất bản là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Giới tính
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Giới tính là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Quê quán hoặc quê quán là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi không nhập trường Giới tính hoặc giới tính là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Quê quán
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Quê quán là bắt buộc"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường Ngày sinh không phải là định dạng ngày/tháng/năm</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123abc" vào trường tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo " Ngày sinh không đúng định dạng"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường Giới tính không phải là Nam hoặc Nữ</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Giới tính không hợp lệ"</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng khi nhập trường Quê quán không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Cập nhật
+1. Nhập vào "123" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Quê quán không được là số"</t>
+  </si>
+  <si>
+    <t>FUNC-CN-12</t>
+  </si>
+  <si>
+    <t>- Người dùng mới được thêm vào DB
+- Đóng cửa sổ Cập nhật
+- Quay lại trang danh sách
+- Làm mới danh sách người dùng</t>
+  </si>
+  <si>
+    <t>FUNC-CN-13</t>
+  </si>
+  <si>
+    <t>FUNC-CN-14</t>
+  </si>
+  <si>
+    <t>Check QLND-CN screen'</t>
+  </si>
+  <si>
+    <t>Check Quản lý người dùng - Thêm mới Screen</t>
+  </si>
+  <si>
+    <t>Check Gui - Quản lý người dùng_Thêm mới Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tại màn hình quản lý người dùng - danh sách
+1. Click linkbutton thêm mới
+</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-1</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-2</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-3</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-4</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-5</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-6</t>
+  </si>
+  <si>
+    <t>Gui-QLND_TM-7</t>
+  </si>
+  <si>
+    <t>- Người dùng mới được thêm vào DB
+- Đóng cửa sổ thêm mới
+- Quay lại trang danh sách
+- Làm mới danh sách người dùng</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Tên tài khoản hoặc tên tài khoản là các khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết trừ Tên tài khoản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Tên người dùng hoặc tên người dùng là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Ngày sinh hoặc Ngày sinh là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Ngày sinh
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Giới tính hoặc giới tính là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Giới tính
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi không nhập trường Quê quán hoặc quê quán là những khoảng trắng</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết ngoại trừ Quê quán
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập các trường với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào"$$$%" vào các textbox
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường tên người dùng không phải là kí tự</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123" vào trường tên người dùng
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường Ngày sinh không phải là định dạng ngày/tháng/năm</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123abc" vào trường tên tác giả
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường Giới tính không phải là Nam hoặc Nữ</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123abc" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào "123" vào trường Năm xuất bản
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Nhập vào toàn bộ những thông tin cần thiết với độ dài lớn nhất
+2. Click button [Submit]</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng khi nhập trường Quê quán không phải là kí tự</t>
+  </si>
+  <si>
+    <t>Thêm mới người dùng với các trường dữ liệu được nhập với độ dài lớn nhất</t>
+  </si>
+  <si>
+    <t>Thoát màn hình Thêm mới</t>
+  </si>
+  <si>
+    <t>- Tại màn hình quản lý người dùng - Thêm mới
+1. Click vào linkbutton [Thoát]</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Check QLND-TM screen'</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2837,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2405,42 +2968,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2625,9 +3152,6 @@
     <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2666,9 +3190,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2744,12 +3265,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2774,6 +3289,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2786,6 +3350,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2793,43 +3390,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3217,13 +3777,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3234,11 +3794,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="185" t="s">
+      <c r="C4" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -3248,36 +3808,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="187" t="str">
+      <c r="C6" s="190" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -3403,589 +3963,660 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="192" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>21</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1015,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="80">
-        <f>COUNTIF(F10:F1012,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
-        <f>COUNTIF(F$10:F$1012,"N/A")</f>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1015,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
-        <v>0</v>
-      </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="E6" s="191">
+        <v>21</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
-        <v>290</v>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="38.25">
+      <c r="A10" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="183" t="s">
-        <v>332</v>
-      </c>
-      <c r="B11" s="170" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="E10" s="134"/>
+      <c r="F10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25">
+      <c r="A11" s="155" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="171" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="146" t="s">
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="155" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="145"/>
+      <c r="D13" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="171" t="s">
+      <c r="E13" s="143"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25">
+      <c r="A14" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="155" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="169" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="171" t="s">
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5">
+      <c r="A16" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="154" t="s">
+      <c r="C16" s="145"/>
+      <c r="D16" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:11" ht="51">
-      <c r="A17" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="148" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="148" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" ht="76.5">
-      <c r="A19" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="148" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="148" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-    </row>
-    <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="148" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
-    </row>
-    <row r="21" spans="1:11" ht="76.5">
-      <c r="A21" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
-    </row>
-    <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
-    </row>
-    <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="148" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>313</v>
-      </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="C24" s="148" t="s">
-        <v>319</v>
-      </c>
-      <c r="D24" s="148" t="s">
-        <v>320</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
-    </row>
-    <row r="25" spans="1:11" ht="63.75">
-      <c r="A25" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="148" t="s">
-        <v>322</v>
-      </c>
-      <c r="D25" s="148" t="s">
-        <v>323</v>
-      </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
-    </row>
-    <row r="26" spans="1:11" ht="89.25">
-      <c r="A26" s="90" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="148" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>316</v>
-      </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="94"/>
-    </row>
-    <row r="27" spans="1:11" ht="76.5">
-      <c r="A27" s="90" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="148" t="s">
-        <v>327</v>
-      </c>
-      <c r="D27" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="94"/>
-    </row>
-    <row r="28" spans="1:11" ht="38.25">
-      <c r="A28" s="90" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="148" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="90"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="94"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="G29" s="8"/>
-      <c r="I29" s="94"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="94"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="F31" s="103"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="I32" s="94"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:9" s="57" customFormat="1" ht="51">
+      <c r="A18" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" spans="1:9" ht="63.75">
+      <c r="A19" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:9" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:9" ht="76.5">
+      <c r="A21" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:9" ht="76.5">
+      <c r="A22" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:9" ht="76.5">
+      <c r="A23" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:9" ht="76.5">
+      <c r="A24" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:9" ht="63.75">
+      <c r="A25" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:9" ht="63.75">
+      <c r="A26" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:9" ht="63.75">
+      <c r="A27" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>412</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:9" ht="63.75">
+      <c r="A28" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:9" ht="63.75">
+      <c r="A29" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="78"/>
+      <c r="F29" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:9" ht="76.5">
+      <c r="A30" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="135" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="135" t="s">
+        <v>420</v>
+      </c>
+      <c r="E30" s="78"/>
+      <c r="F30" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:9" ht="38.25">
+      <c r="A31" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="135" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="135" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="82"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="G32" s="8"/>
+      <c r="I32" s="82"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="82"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="F34" s="91"/>
+      <c r="I34" s="82"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="I35" s="82"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="I36" s="82"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="I37" s="77"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="G38" s="8"/>
+      <c r="I38" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3996,7 +4627,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F30:F158 F7:F28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F33:F161 F7:F31">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4006,19 +4637,1171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="50"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>21</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1013,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="68">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1013,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <v>21</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="38.25">
+      <c r="A10" s="127" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25">
+      <c r="A11" s="169" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" s="155" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="155" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25">
+      <c r="A14" s="155" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="155" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="155" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="145"/>
+      <c r="D16" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="77"/>
+    </row>
+    <row r="18" spans="1:11" ht="51">
+      <c r="A18" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" ht="63.75">
+      <c r="A19" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:11" ht="76.5">
+      <c r="A21" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="76.5">
+      <c r="A22" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:11" ht="76.5">
+      <c r="A23" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:11" ht="76.5">
+      <c r="A24" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>445</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:11" ht="63.75">
+      <c r="A25" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="63.75">
+      <c r="A26" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>449</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:11" ht="63.75">
+      <c r="A27" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:11" ht="63.75">
+      <c r="A28" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:11" ht="63.75">
+      <c r="A29" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="127"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:11" ht="76.5">
+      <c r="A30" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="135" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" s="185" t="s">
+        <v>420</v>
+      </c>
+      <c r="E30" s="184"/>
+      <c r="F30" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:11" ht="38.25">
+      <c r="A31" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="135" t="s">
+        <v>459</v>
+      </c>
+      <c r="D31" s="185" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="186"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="82"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="F32" s="91"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F159">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="8"/>
+    <col min="8" max="9" width="33.125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+      <c r="B1" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+    </row>
+    <row r="3" spans="1:8" ht="12" customHeight="1">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="199"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+    </row>
+    <row r="4" spans="1:8" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="199"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" spans="1:8" ht="12" customHeight="1">
+      <c r="B5" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="198" t="str">
+        <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
+        <v>&lt;Project Code&gt;_Test Report_vx.x</v>
+      </c>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="199"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="200" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="108"/>
+      <c r="B11" s="109">
+        <v>1</v>
+      </c>
+      <c r="C11" s="110" t="str">
+        <f>'Check Login Screen'!B2</f>
+        <v>Check Login Screen</v>
+      </c>
+      <c r="D11" s="111">
+        <f>'Check Login Screen'!A6</f>
+        <v>11</v>
+      </c>
+      <c r="E11" s="111">
+        <f>'Check Login Screen'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="111">
+        <f>'Check Login Screen'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="112">
+        <f>'Check Login Screen'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="113">
+        <f>'Check Login Screen'!E6</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="108"/>
+      <c r="B12" s="109" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="110" t="str">
+        <f>'Check QLKT-DS screen'!B2</f>
+        <v>Check Quản lý kỳ thi - Danh sách  Screen</v>
+      </c>
+      <c r="D12" s="111">
+        <f>'Check QLKT-DS screen'!A6</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="111">
+        <f>'Check QLKT-DS screen'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="111">
+        <f>'Check QLKT-DS screen'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="112">
+        <f>'Check QLKT-DS screen'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="113">
+        <f>'Check QLKT-DS screen'!E6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5">
+      <c r="A13" s="108"/>
+      <c r="B13" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="160" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="111">
+        <v>17</v>
+      </c>
+      <c r="E13" s="111">
+        <v>0</v>
+      </c>
+      <c r="F13" s="111">
+        <v>0</v>
+      </c>
+      <c r="G13" s="112">
+        <v>0</v>
+      </c>
+      <c r="H13" s="113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="108"/>
+      <c r="B14" s="161" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="163">
+        <v>14</v>
+      </c>
+      <c r="E14" s="163">
+        <v>0</v>
+      </c>
+      <c r="F14" s="163">
+        <v>0</v>
+      </c>
+      <c r="G14" s="164">
+        <v>0</v>
+      </c>
+      <c r="H14" s="165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5">
+      <c r="A15" s="108"/>
+      <c r="B15" s="161" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="163">
+        <v>6</v>
+      </c>
+      <c r="E15" s="163">
+        <v>0</v>
+      </c>
+      <c r="F15" s="163">
+        <v>0</v>
+      </c>
+      <c r="G15" s="164">
+        <v>0</v>
+      </c>
+      <c r="H15" s="165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="108"/>
+      <c r="B16" s="161" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="163">
+        <v>18</v>
+      </c>
+      <c r="E16" s="163">
+        <v>0</v>
+      </c>
+      <c r="F16" s="163">
+        <v>0</v>
+      </c>
+      <c r="G16" s="164">
+        <v>0</v>
+      </c>
+      <c r="H16" s="165">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="108"/>
+      <c r="B17" s="161" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="163">
+        <v>16</v>
+      </c>
+      <c r="E17" s="163">
+        <v>0</v>
+      </c>
+      <c r="F17" s="163">
+        <v>0</v>
+      </c>
+      <c r="G17" s="164">
+        <v>0</v>
+      </c>
+      <c r="H17" s="165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5">
+      <c r="A18" s="108"/>
+      <c r="B18" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="163">
+        <v>6</v>
+      </c>
+      <c r="E18" s="163">
+        <v>0</v>
+      </c>
+      <c r="F18" s="163">
+        <v>0</v>
+      </c>
+      <c r="G18" s="164">
+        <v>0</v>
+      </c>
+      <c r="H18" s="165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="108"/>
+      <c r="B19" s="161" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="163">
+        <v>21</v>
+      </c>
+      <c r="E19" s="163">
+        <v>0</v>
+      </c>
+      <c r="F19" s="163">
+        <v>0</v>
+      </c>
+      <c r="G19" s="164">
+        <v>0</v>
+      </c>
+      <c r="H19" s="165">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="108"/>
+      <c r="B20" s="161" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="163">
+        <v>21</v>
+      </c>
+      <c r="E20" s="163">
+        <v>0</v>
+      </c>
+      <c r="F20" s="163">
+        <v>0</v>
+      </c>
+      <c r="G20" s="164">
+        <v>0</v>
+      </c>
+      <c r="H20" s="165">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="108"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="116">
+        <f>SUM(D9:D20)</f>
+        <v>136</v>
+      </c>
+      <c r="E21" s="116">
+        <f>SUM(E9:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="116">
+        <f>SUM(F9:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="116">
+        <f>SUM(G9:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="117">
+        <f>SUM(H9:H20)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="101"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="122">
+        <f>(D21+E21)*100/(H21-G21)</f>
+        <v>100</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="101"/>
+      <c r="H23" s="70"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="122">
+        <f>D21*100/(H21-G21)</f>
+        <v>100</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="101"/>
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="37" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.125" style="38" customWidth="1"/>
     <col min="4" max="4" width="29.125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.125" style="38" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="38" customWidth="1"/>
@@ -4038,39 +5821,39 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191" t="str">
+      <c r="C3" s="204"/>
+      <c r="D3" s="198" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191" t="str">
+      <c r="C4" s="204"/>
+      <c r="D4" s="198" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="44"/>
@@ -4087,182 +5870,294 @@
       <c r="F7" s="48"/>
     </row>
     <row r="8" spans="2:6" s="49" customFormat="1" ht="21" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="171" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.5">
-      <c r="B9" s="54">
-        <v>1</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176"/>
     </row>
     <row r="10" spans="2:6" ht="13.5">
-      <c r="B10" s="54">
-        <v>2</v>
-      </c>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="172" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
     </row>
     <row r="11" spans="2:6" ht="13.5">
-      <c r="B11" s="54">
-        <v>3</v>
-      </c>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="172" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
     </row>
     <row r="12" spans="2:6" ht="25.5">
-      <c r="B12" s="54">
-        <v>4</v>
-      </c>
-      <c r="C12" s="149" t="s">
+      <c r="B12" s="172" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
     </row>
     <row r="13" spans="2:6" ht="13.5">
-      <c r="B13" s="54">
-        <v>5</v>
-      </c>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="172" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="176"/>
     </row>
     <row r="14" spans="2:6" ht="25.5">
-      <c r="B14" s="54">
-        <v>6</v>
-      </c>
-      <c r="C14" s="149" t="s">
+      <c r="B14" s="172" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
     </row>
     <row r="15" spans="2:6" ht="13.5">
-      <c r="B15" s="54">
-        <v>7</v>
-      </c>
-      <c r="C15" s="149" t="s">
+      <c r="B15" s="172" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="177" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="175" t="s">
+      <c r="D15" s="179" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
     </row>
     <row r="16" spans="2:6" ht="13.5">
-      <c r="B16" s="54">
-        <v>8</v>
-      </c>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="173" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="178" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+    </row>
+    <row r="17" spans="2:6" ht="13.5">
+      <c r="B17" s="172" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="173" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D17" s="179" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="2:6" ht="13.5">
-      <c r="B17" s="54">
-        <v>9</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
     </row>
     <row r="18" spans="2:6" ht="13.5">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="172" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="173" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="178" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+    </row>
+    <row r="19" spans="2:6" ht="14.25">
+      <c r="B19" s="172" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="174" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="203" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
-    </row>
-    <row r="20" spans="2:6" ht="13.5">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="174" t="s">
-        <v>333</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="57"/>
+      <c r="D19" s="180" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+    </row>
+    <row r="20" spans="2:6" ht="14.25">
+      <c r="B20" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="173" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" s="180" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
     </row>
     <row r="21" spans="2:6" ht="13.5">
-      <c r="B21" s="59"/>
-      <c r="C21" s="149" t="s">
+      <c r="B21" s="172" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="177" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="202" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
+      <c r="D21" s="178" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.5">
+      <c r="B22" s="172" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="173" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="178" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.5">
+      <c r="B23" s="172" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="178" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.25">
+      <c r="B24" s="181" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="173" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="183" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+    </row>
+    <row r="25" spans="2:6" ht="14.25">
+      <c r="B25" s="181" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" s="173" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="183" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+    </row>
+    <row r="26" spans="2:6" ht="14.25">
+      <c r="B26" s="181" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" s="173" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+    </row>
+    <row r="27" spans="2:6" ht="14.25">
+      <c r="B27" s="181" t="s">
+        <v>466</v>
+      </c>
+      <c r="C27" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+    </row>
+    <row r="28" spans="2:6" ht="14.25">
+      <c r="B28" s="181" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="173" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="183" t="s">
+        <v>423</v>
+      </c>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+    </row>
+    <row r="29" spans="2:6" ht="14.25">
+      <c r="B29" s="181" t="s">
+        <v>470</v>
+      </c>
+      <c r="C29" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="183" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4285,9 +6180,17 @@
     <hyperlink ref="D16" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D17" location="'Check QLKT-CN screen'!A1" display="Check QLKT-CN screen"/>
     <hyperlink ref="D18" location="'Check QLTL-DS screen'!A1" display="'Check QLTL-DS screen'!A1"/>
-    <hyperlink ref="D20" location="'Check QLTL-CN screen'!A1" display="'Check QLTL-CN screen'!A1"/>
     <hyperlink ref="D21" location="'Check QLTL-TM screen'!A1" display="'Check QLTL-TM screen'!A1"/>
     <hyperlink ref="D19" location="'Check QLTL-DS screen'!A1" display="Check QLTL-DS screen'"/>
+    <hyperlink ref="D20" location="'Check QLTL-TM screen'!A1" display="'Check QLTL-TM screen'!A1"/>
+    <hyperlink ref="D22" location="'Check QLTL-CN screen'!A1" display="'Check QLTL-CN screen'!A1"/>
+    <hyperlink ref="D23" location="'Check QLTL-CN screen'!A1" display="'Check QLTL-CN screen'!A1"/>
+    <hyperlink ref="D24" location="'Check QLND-DS screen'!A1" display="'Check QLND-DS screen'!A1"/>
+    <hyperlink ref="D25" location="'Check QLND-DS screen'!A1" display="'Check QLND-DS screen'!A1"/>
+    <hyperlink ref="D28" location="'Check QLND-CN screen'!A1" display="'Check QLND-CN screen'!A1"/>
+    <hyperlink ref="D29" location="'Check QLND-CN screen'!A1" display="'Check QLND-CN screen'!A1"/>
+    <hyperlink ref="D26" location="'Check QLND-TM screen'!A1" display="'Check QLND-TM screen'!A1"/>
+    <hyperlink ref="D27" location="'Check QLND-TM screen'!A1" display="'Check QLND-TM screen'!A1"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4297,7 +6200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -4314,423 +6217,423 @@
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="79">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="67">
         <f>COUNTIF(F10:F1002,"Pass")</f>
         <v>11</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1002,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1002)</f>
         <v>11</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="136" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="38.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="137" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="143" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="144"/>
-      <c r="F12" s="140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="127"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="146" t="s">
+      <c r="C13" s="128"/>
+      <c r="D13" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="145" t="s">
+      <c r="E13" s="134"/>
+      <c r="F13" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="75"/>
+      <c r="B14" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="89"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="94"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:10" ht="51">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="94"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:9" ht="51">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="94"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" ht="51">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="94"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
-    </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="90" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
+    </row>
+    <row r="22" spans="1:9" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4757,7 +6660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -4774,390 +6677,390 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="88">
         <f>COUNTIF(F10:F1004,"Pass")</f>
         <v>6</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1004,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1004)</f>
         <v>6</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="158" t="s">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="197"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="158" t="s">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="197"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="159" t="s">
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="197"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="159" t="s">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="154" t="s">
+      <c r="D15" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="159" t="s">
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="154" t="s">
+      <c r="D16" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="94"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="155" t="s">
+      <c r="C17" s="149"/>
+      <c r="D17" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="146" t="s">
+      <c r="C18" s="128"/>
+      <c r="D18" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="145" t="s">
+      <c r="E18" s="134"/>
+      <c r="F18" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="128"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="89"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:11" ht="51">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="102"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="F22" s="90"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="103"/>
-      <c r="I23" s="94"/>
+      <c r="F23" s="91"/>
+      <c r="I23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5186,7 +7089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -5202,504 +7105,504 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <f>COUNTIF(F10:F1008,"Pass")</f>
         <v>14</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1008,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1008,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1009)</f>
         <v>14</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="146" t="s">
+      <c r="C10" s="144"/>
+      <c r="D10" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="154" t="s">
+      <c r="C13" s="145"/>
+      <c r="D13" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="145"/>
-      <c r="B15" s="145" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="90" t="s">
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="89"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:11" ht="63.75">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="135" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="148" t="s">
+      <c r="D22" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:11" ht="38.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="94"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="78"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:11">
       <c r="G25" s="8"/>
-      <c r="I25" s="94"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="173"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="94"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="F27" s="103"/>
-      <c r="I27" s="94"/>
+      <c r="F27" s="91"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="I28" s="94"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="I29" s="94"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="I30" s="89"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="94"/>
+      <c r="I31" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5720,7 +7623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -5736,556 +7639,556 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <f>COUNTIF(F10:F1011,"Pass")</f>
         <v>17</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1011,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1011,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <f>COUNTA(A10:A1012)</f>
         <v>17</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="155" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="146" t="s">
+      <c r="C13" s="144"/>
+      <c r="D13" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="154" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145" t="s">
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="132"/>
+      <c r="B16" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="89"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:11" ht="51">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="94"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:11" ht="63.75">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:11" ht="63.75">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:11" ht="76.5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="148" t="s">
+      <c r="D22" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:11" ht="89.25">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="148" t="s">
+      <c r="D25" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:11" ht="63.75">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="148" t="s">
+      <c r="D26" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="94"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:11" ht="38.25">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="90"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="94"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="78"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:11">
       <c r="G28" s="8"/>
-      <c r="I28" s="94"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="173"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="159"/>
       <c r="G29" s="45"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="94"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="F30" s="103"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="F30" s="91"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="94"/>
+      <c r="I31" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6306,404 +8209,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="8"/>
-    <col min="8" max="9" width="33.125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
-    </row>
-    <row r="3" spans="1:8" ht="12" customHeight="1">
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="191"/>
-      <c r="E3" s="199" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="199" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="199"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108"/>
-    </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="191" t="str">
-        <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
-        <v>&lt;Project Code&gt;_Test Report_vx.x</v>
-      </c>
-      <c r="D5" s="191"/>
-      <c r="E5" s="199" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="200" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="119" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121">
-        <v>1</v>
-      </c>
-      <c r="C11" s="122" t="str">
-        <f>'Check Login Screen'!B2</f>
-        <v>Check Login Screen</v>
-      </c>
-      <c r="D11" s="123">
-        <f>'Check Login Screen'!A6</f>
-        <v>11</v>
-      </c>
-      <c r="E11" s="123">
-        <f>'Check Login Screen'!B6</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="123">
-        <f>'Check Login Screen'!C6</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="124">
-        <f>'Check Login Screen'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="125">
-        <f>'Check Login Screen'!E6</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="120"/>
-      <c r="B12" s="121">
-        <v>2</v>
-      </c>
-      <c r="C12" s="122" t="str">
-        <f>'Check QLKT-DS screen'!B2</f>
-        <v>Check Quản lý kỳ thi - Danh sách  Screen</v>
-      </c>
-      <c r="D12" s="123">
-        <f>'Check QLKT-DS screen'!A6</f>
-        <v>6</v>
-      </c>
-      <c r="E12" s="123">
-        <f>'Check QLKT-DS screen'!B6</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="123">
-        <f>'Check QLKT-DS screen'!C6</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="124">
-        <f>'Check QLKT-DS screen'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="125">
-        <f>'Check QLKT-DS screen'!E6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="120"/>
-      <c r="B13" s="121">
-        <v>3</v>
-      </c>
-      <c r="C13" s="176" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="123">
-        <v>17</v>
-      </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="120"/>
-      <c r="B14" s="177">
-        <v>4</v>
-      </c>
-      <c r="C14" s="178" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="179">
-        <v>14</v>
-      </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="181">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5">
-      <c r="A15" s="120"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="179">
-        <v>6</v>
-      </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="181">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="120"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="179">
-        <v>16</v>
-      </c>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="181">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="120"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178" t="s">
-        <v>331</v>
-      </c>
-      <c r="D17" s="179">
-        <v>18</v>
-      </c>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="181">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="120"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="128">
-        <f>SUM(D9:D17)</f>
-        <v>88</v>
-      </c>
-      <c r="E18" s="128">
-        <f>SUM(E9:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="128">
-        <f>SUM(F9:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="128">
-        <f>SUM(G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="129">
-        <f>SUM(H9:H17)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="113"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="134">
-        <f>(D18+E18)*100/(H18-G18)</f>
-        <v>100</v>
-      </c>
-      <c r="F20" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="82"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="134">
-        <f>D18*100/(H18-G18)</f>
-        <v>100</v>
-      </c>
-      <c r="F21" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="82"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6713,388 +8225,388 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="192" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <v>6</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1004,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1004,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <v>6</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="127" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
+      <c r="A11" s="195" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="156" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150" t="s">
+      <c r="D12" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="147" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="149"/>
+      <c r="D17" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="196" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="196" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="158" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="197"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="158" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5">
-      <c r="A14" s="197"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="159" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="154" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="197"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="159" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="154" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="161" t="s">
+      <c r="E17" s="150"/>
+      <c r="F17" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5">
+      <c r="A18" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="162" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="155" t="s">
+      <c r="B18" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:11" ht="25.5">
-      <c r="A18" s="141" t="s">
+      <c r="E18" s="134"/>
+      <c r="F18" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="128"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="77"/>
+    </row>
+    <row r="20" spans="1:11" ht="51">
+      <c r="A20" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:11" ht="51">
-      <c r="A20" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="94"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21" s="148" t="s">
+      <c r="C21" s="135" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="F22" s="102"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="F22" s="90"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="F23" s="103"/>
-      <c r="I23" s="94"/>
+      <c r="F23" s="91"/>
+      <c r="I23" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7117,12 +8629,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7133,544 +8645,544 @@
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62"/>
+    <col min="7" max="7" width="9" style="50"/>
     <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="63" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
     <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="193" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="192" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="43"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="75" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69" t="s">
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="100">
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
         <v>16</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="68">
         <f>COUNTIF(F10:F1010,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="68">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="69">
         <f>COUNTIF(F$10:F$1010,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="191">
         <v>16</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="83" t="s">
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A10" s="166" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="134"/>
+      <c r="F10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A11" s="155" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1">
+      <c r="A12" s="155" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="51" customHeight="1">
+      <c r="A13" s="155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="145"/>
+      <c r="D13" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="143"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="51" customHeight="1">
+      <c r="A14" s="155" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" ht="63.75">
+      <c r="A17" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="182" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="170" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A11" s="169" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="171" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="169" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="169" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="169" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="171" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="157"/>
-      <c r="F14" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="145"/>
-      <c r="B15" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="148" t="s">
+      <c r="D17" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="148" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="148" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" ht="76.5">
+      <c r="A19" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="148" t="s">
+      <c r="C19" s="135" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="135" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="148" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:11" ht="76.5">
-      <c r="A19" s="90" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="90" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="135" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="D20" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:11" ht="63.75">
+      <c r="A21" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
+      <c r="A22" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-    </row>
-    <row r="20" spans="1:11" ht="76.5">
-      <c r="A20" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" s="148" t="s">
+      <c r="C22" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
-    </row>
-    <row r="21" spans="1:11" ht="63.75">
-      <c r="A21" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="90" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75">
+      <c r="A23" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:11" ht="63.75">
+      <c r="A24" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:11" ht="76.5">
+      <c r="A25" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="135" t="s">
         <v>271</v>
       </c>
-      <c r="C21" s="148" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
-    </row>
-    <row r="22" spans="1:11" ht="63.75">
-      <c r="A22" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="90" t="s">
+      <c r="D25" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="148" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="148" t="s">
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="38.25">
+      <c r="A26" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="135" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
-    </row>
-    <row r="23" spans="1:11" ht="63.75">
-      <c r="A23" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="148" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="1:11" ht="63.75">
-      <c r="A24" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="148" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="148" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
-    </row>
-    <row r="25" spans="1:11" ht="76.5">
-      <c r="A25" s="90" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="90" t="s">
+      <c r="D26" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="148" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="148" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
-    </row>
-    <row r="26" spans="1:11" ht="38.25">
-      <c r="A26" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="148" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="94"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:11">
       <c r="G27" s="8"/>
-      <c r="I27" s="94"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="173"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="159"/>
       <c r="G28" s="45"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="94"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="F29" s="103"/>
-      <c r="I29" s="94"/>
+      <c r="F29" s="91"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="I30" s="94"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="94"/>
+      <c r="I31" s="82"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="I32" s="89"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="94"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="9:9" s="8" customFormat="1">
+      <c r="I33" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7689,4 +9201,1044 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="50"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>18</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1012,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="68">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <v>18</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1" ht="38.25">
+      <c r="A10" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25">
+      <c r="A11" s="167" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" s="155" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="155" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="155" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="145"/>
+      <c r="D14" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="155" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="145"/>
+      <c r="D15" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="132"/>
+      <c r="B16" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" ht="51">
+      <c r="A17" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="135" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11" ht="76.5">
+      <c r="A19" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" ht="76.5">
+      <c r="A20" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:11" ht="76.5">
+      <c r="A21" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
+      <c r="A22" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:11" ht="63.75">
+      <c r="A23" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:11" ht="63.75">
+      <c r="A24" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:11" ht="63.75">
+      <c r="A25" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="135" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="89.25">
+      <c r="A26" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:11" ht="76.5">
+      <c r="A27" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:11" ht="38.25">
+      <c r="A28" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="8"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="F31" s="91"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="I32" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F30:F158 F7:F28">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="50"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="51" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="57" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="194"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="88">
+        <v>6</v>
+      </c>
+      <c r="B6" s="68">
+        <f>COUNTIF(F10:F1005,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="68">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
+        <f>COUNTIF(F$10:F$1005,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <v>6</v>
+      </c>
+      <c r="F6" s="191"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="83" customFormat="1">
+      <c r="A10" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
+      <c r="A11" s="195" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="144" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="144" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="196"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="145" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="145" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="140" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5">
+      <c r="A16" s="196"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="145" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="197"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="143"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="147" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="149"/>
+      <c r="D18" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="150"/>
+      <c r="F18" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="127"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="128"/>
+      <c r="D19" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="134"/>
+      <c r="F19" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="128"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="132"/>
+      <c r="B20" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" spans="1:11" ht="51">
+      <c r="A21" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="78"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:11" ht="51">
+      <c r="A22" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="F23" s="90"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="F24" s="91"/>
+      <c r="I24" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F151">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>